--- a/NanaFood - Test.xlsx
+++ b/NanaFood - Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN\NanaWebFood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C738F263-C9DB-48C6-B339-6493E85BAB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9792BB5F-CAFE-4D79-A4C4-833E2DF40A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1623,9 +1623,6 @@
     <t>AuthControllerTests</t>
   </si>
   <si>
-    <t>LoginAsync_ValidCredentials_ReturnsOkResult</t>
-  </si>
-  <si>
     <t>Kiểm tra LoginAsync với thông tin đăng nhập hợp lệ.</t>
   </si>
   <si>
@@ -1636,9 +1633,6 @@
     <t>Gọi phương thức LoginAsync với thông tin đăng nhập hợp lệ. Trả về OkObjectResult và ResponseDto có IsSuccess là true.</t>
   </si>
   <si>
-    <t>LoginAsync_InvalidCredentials_ReturnsBadRequest</t>
-  </si>
-  <si>
     <t>Kiểm tra LoginAsync với thông tin đăng nhập không hợp lệ.</t>
   </si>
   <si>
@@ -1649,9 +1643,6 @@
     <t>Gọi phương thức LoginAsync với thông tin đăng nhập không hợp lệ. Trả về BadRequestObjectResult và ResponseDto có IsSuccess là false.</t>
   </si>
   <si>
-    <t>RegisterAsync_ValidData_ReturnsOkResult</t>
-  </si>
-  <si>
     <t>Kiểm tra RegisterAsync với dữ liệu đăng ký hợp lệ.</t>
   </si>
   <si>
@@ -1662,9 +1653,6 @@
     <t>Gọi phương thức RegisterAsync với thông tin đăng ký hợp lệ. Trả về OkObjectResult và ResponseDto có IsSuccess là true.</t>
   </si>
   <si>
-    <t>RegisterAsync_InvalidData_ReturnsBadRequest</t>
-  </si>
-  <si>
     <t>Kiểm tra RegisterAsync khi dữ liệu đăng ký không đầy đủ hoặc không hợp lệ.</t>
   </si>
   <si>
@@ -1675,9 +1663,6 @@
     <t>Gọi phương thức RegisterAsync với thông tin đăng ký không hợp lệ. Trả về BadRequestObjectResult.</t>
   </si>
   <si>
-    <t>Logout_UserIsAuthenticated_ReturnsOkResult</t>
-  </si>
-  <si>
     <t>Kiểm tra LogOut khi người dùng đã đăng nhập.</t>
   </si>
   <si>
@@ -1685,9 +1670,6 @@
   </si>
   <si>
     <t>Gọi phương thức LogOut. Trả về OkObjectResult và ResponseDto có IsSuccess là true.</t>
-  </si>
-  <si>
-    <t>ForgotPassword_ValidEmail_ReturnsOkResult</t>
   </si>
   <si>
     <t>Kiểm tra ForgotPassword với email hợp lệ.</t>
@@ -1700,9 +1682,6 @@
     <t>Gọi phương thức ForgotPassword với email hợp lệ. Trả về OkObjectResult và ResponseDto có IsSuccess là true.</t>
   </si>
   <si>
-    <t>ForgotPassword_InvalidEmail_ReturnsBadRequest</t>
-  </si>
-  <si>
     <t>Kiểm tra ForgotPassword với email không tồn tại trong hệ thống.</t>
   </si>
   <si>
@@ -1713,25 +1692,16 @@
     <t>Gọi phương thức ForgotPassword với email không hợp lệ. Trả về BadRequestObjectResult và ResponseDto có IsSuccess là false.</t>
   </si>
   <si>
-    <t>LoginAsync_MissingFields_ReturnsBadRequest</t>
-  </si>
-  <si>
     <t>Kiểm tra LoginAsync khi thiếu thông tin đăng nhập.</t>
   </si>
   <si>
     <t>Gọi phương thức LoginAsync mà không có username hoặc password. Trả về BadRequestObjectResult.</t>
   </si>
   <si>
-    <t>UpdateUser_ValidUserInfo_ReturnsOkResult</t>
-  </si>
-  <si>
     <t>Kiểm tra UpdateUser với thông tin người dùng hợp lệ.</t>
   </si>
   <si>
     <t>Gọi phương thức UpdateUser với thông tin người dùng hợp lệ. Trả về OkObjectResult và ResponseDto có IsSuccess là true.</t>
-  </si>
-  <si>
-    <t>RegisterAsync_EmailAlreadyExists_ReturnsBadRequest</t>
   </si>
   <si>
     <t>Kiểm tra RegisterAsync khi email đã tồn tại trong hệ thống.</t>
@@ -1744,16 +1714,10 @@
     <t>Gọi phương thức RegisterAsync với email đã tồn tại. Trả về BadRequestObjectResult và ResponseDto có IsSuccess là false.</t>
   </si>
   <si>
-    <t>ChangePass_ReturnsOk_WhenChangePasswordIsSuccessful</t>
-  </si>
-  <si>
     <t>Kiểm tra ChangePass khi thay đổi mật khẩu thành công.</t>
   </si>
   <si>
     <t>Gọi phương thức ChangePass với mật khẩu hợp lệ. Trả về OkObjectResult và ResponseDto có IsSuccess là true.</t>
-  </si>
-  <si>
-    <t>ChangePass_ReturnsUnauthorized_WhenUserNotLoggedIn</t>
   </si>
   <si>
     <t>Kiểm tra ChangePass khi người dùng chưa đăng nhập.</t>
@@ -1766,9 +1730,6 @@
     <t>Gọi phương thức ChangePass. Trả về UnauthorizedObjectResult với thông báo "Người dùng chưa đăng nhập".</t>
   </si>
   <si>
-    <t>ConfirmEmail_ReturnsOk_WhenConfirmationIsSuccessful</t>
-  </si>
-  <si>
     <t>Kiểm tra ConfirmEmail khi xác nhận email thành công.</t>
   </si>
   <si>
@@ -1779,9 +1740,6 @@
     <t>Gọi phương thức ConfirmEmail với token hợp lệ. Trả về RedirectResult tới URL thông báo kích hoạt thành công.</t>
   </si>
   <si>
-    <t>ConfirmEmail_ReturnsBadRequest_WhenConfirmationFails</t>
-  </si>
-  <si>
     <t>Kiểm tra ConfirmEmail khi xác nhận email thất bại.</t>
   </si>
   <si>
@@ -1795,9 +1753,6 @@
     <t>CategoryControllerTests</t>
   </si>
   <si>
-    <t>GetAllCategories_ReturnsOkResult_WithCategoryList</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu danh sách tất cả danh mục trả về OkObjectResult với dữ liệu danh mục</t>
   </si>
   <si>
@@ -1807,9 +1762,6 @@
     <t>Kiểm tra nếu kết quả là OkObjectResult, nếu IsSuccess là true, và danh sách danh mục không rỗng. Danh sách tất cả danh mục trả về thành công, không rỗng</t>
   </si>
   <si>
-    <t>GetCategoryById_CategoryExists_ReturnsOkResult</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu lấy danh mục theo ID tồn tại trả về OkObjectResult</t>
   </si>
   <si>
@@ -1819,9 +1771,6 @@
     <t>Kiểm tra nếu kết quả là OkObjectResult, nếu IsSuccess là true, và kiểm tra tên danh mục. Danh mục với ID cụ thể được trả về thành công và đúng dữ liệu</t>
   </si>
   <si>
-    <t>CreateCategory_ValidCategory_ReturnsCreatedAtAction</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu tạo danh mục mới trả về CreatedAtActionResult</t>
   </si>
   <si>
@@ -1831,9 +1780,6 @@
     <t>Kiểm tra nếu kết quả là CreatedAtActionResult, nếu IsSuccess là true, và kiểm tra tên danh mục. Danh mục mới được tạo thành công và trả về đúng dữ liệu</t>
   </si>
   <si>
-    <t>DeleteCategory_ValidCategoryId_ReturnsOkResult</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu xóa danh mục với ID hợp lệ trả về OkObjectResult</t>
   </si>
   <si>
@@ -1843,9 +1789,6 @@
     <t>Kiểm tra nếu kết quả là OkObjectResult, nếu IsSuccess là true, và kiểm tra thông báo. Danh mục được xóa thành công với thông báo xác nhận</t>
   </si>
   <si>
-    <t>GetCategoryById_NonExistingId_ReturnsNotFound</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu lấy danh mục với ID không tồn tại trả về NotFoundObjectResult</t>
   </si>
   <si>
@@ -1855,9 +1798,6 @@
     <t>Kiểm tra nếu kết quả là NotFoundObjectResult.Lấy danh mục không thành công và trả về NotFoundObjectResult</t>
   </si>
   <si>
-    <t>GetCategoryByName_ValidName_ReturnsOk</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu tìm kiếm danh mục theo tên hợp lệ trả về OkObjectResult với danh sách</t>
   </si>
   <si>
@@ -1867,9 +1807,6 @@
     <t>Kiểm tra nếu kết quả là OkObjectResult, nếu IsSuccess là true, và kiểu kết quả là danh sách. Tìm kiếm theo tên thành công, trả về danh sách danh mục có tên phù hợp</t>
   </si>
   <si>
-    <t>GetAllCategories_ReturnsBadRequest_WhenRequestFails</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu lỗi xảy ra khi lấy danh sách danh mục trả về BadRequestObjectResult</t>
   </si>
   <si>
@@ -1879,9 +1816,6 @@
     <t>Kiểm tra nếu kết quả là BadRequestObjectResult và thông báo lỗi trong ResponseDto. Lấy danh mục không thành công, trả về BadRequestObjectResult với thông báo lỗi</t>
   </si>
   <si>
-    <t>GetFoods_WhenNoData_ReturnsEmptyList</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu không có sản phẩm nào trả về danh sách trống</t>
   </si>
   <si>
@@ -1909,9 +1843,6 @@
     <t>Kiểm tra nếu kết quả là BadRequestObjectResult và thông báo Đầu vào không hợp lệ. Trả về BadRequestObjectResult với thông báo Đầu vào không hợp lệ khi ModelState không hợp lệ</t>
   </si>
   <si>
-    <t>UpdateCategory_ReturnsBadRequest_WhenCategoryIdMismatch</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu ID danh mục không khớp trả về BadRequestObjectResult</t>
   </si>
   <si>
@@ -1933,9 +1864,6 @@
     <t>UserControllerTests</t>
   </si>
   <si>
-    <t>CreateUserEndpoint_ValidRequest_ReturnsOk</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu yêu cầu tạo người dùng hợp lệ trả về OkObjectResult</t>
   </si>
   <si>
@@ -1945,9 +1873,6 @@
     <t>Kiểm tra nếu kết quả là OkObjectResult, IsSuccess là true, và thông báo "User created successfully". Tạo người dùng thành công và trả về OkObjectResult với thông báo thành công</t>
   </si>
   <si>
-    <t>GetAllUser_ReturnsOk</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu yêu cầu lấy tất cả người dùng trả về OkObjectResult với danh sách người dùng</t>
   </si>
   <si>
@@ -1957,9 +1882,6 @@
     <t>Kiểm tra nếu kết quả là OkObjectResult, IsSuccess là true, và danh sách người dùng không rỗng. Lấy tất cả người dùng thành công và trả về OkObjectResult với danh sách không rỗng</t>
   </si>
   <si>
-    <t>DeleteUserAsync_ValidId_ReturnsOk</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu xóa người dùng với ID hợp lệ trả về OkObjectResult</t>
   </si>
   <si>
@@ -1969,9 +1891,6 @@
     <t>Kiểm tra nếu kết quả là OkObjectResult, IsSuccess là true, và thông báo "User deleted successfully". Xóa người dùng thành công và trả về OkObjectResult với thông báo thành công</t>
   </si>
   <si>
-    <t>UpdateUserAsync_ValidRequest_ReturnsOk</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu cập nhật người dùng với yêu cầu hợp lệ trả về OkObjectResult</t>
   </si>
   <si>
@@ -1981,9 +1900,6 @@
     <t>Kiểm tra nếu kết quả là OkObjectResult, IsSuccess là true, và thông báo "User updated successfully". Cập nhật người dùng thành công và trả về OkObjectResult với thông báo thành công</t>
   </si>
   <si>
-    <t>GetAllRolesAsync_ReturnsOkWithRoleList</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu lấy tất cả vai trò trả về OkObjectResult với danh sách vai trò</t>
   </si>
   <si>
@@ -1993,9 +1909,6 @@
     <t>Kiểm tra nếu kết quả là OkObjectResult, IsSuccess là true, và danh sách vai trò không rỗng. Lấy tất cả vai trò thành công và trả về OkObjectResult với danh sách vai trò</t>
   </si>
   <si>
-    <t>GetUserByIdAsync_ValidId_ReturnsOk</t>
-  </si>
-  <si>
     <t>Kiểm tra nếu lấy người dùng theo ID hợp lệ trả về OkObjectResult với thông tin người dùng</t>
   </si>
   <si>
@@ -2003,9 +1916,6 @@
   </si>
   <si>
     <t>Kiểm tra nếu kết quả là OkObjectResult, IsSuccess là true, và thông tin người dùng trả về không rỗng. Lấy người dùng theo ID thành công và trả về OkObjectResult với thông tin người dùng</t>
-  </si>
-  <si>
-    <t>GetUserByIdAsync_InvalidId_ReturnsNotFound</t>
   </si>
   <si>
     <t>Kiểm tra nếu lấy người dùng với ID không hợp lệ trả về NotFoundObjectResult hoặc lỗi</t>
@@ -2255,9 +2165,6 @@
     <t>- Gọi API GetAllReview.
  - Kiểm tra kết quả trả về có phải là OkObjectResult và chứa danh sách review đúng như thiết lập.
 Kết quả trả về là OkObjectResult với ResponseDto chứa danh sách review.</t>
-  </si>
-  <si>
-    <t>GetReviewByIdAsync_ExistingId_ReturnsOkWithReview</t>
   </si>
   <si>
     <t>Kiểm tra xem API GetReviewByIdAsync có trả về review đúng khi tìm thấy review theo ID.</t>
@@ -2611,6 +2518,99 @@
   </si>
   <si>
     <t>CreatCoupon ValidData ReturnOkResult</t>
+  </si>
+  <si>
+    <t>LoginAsync ValidCredentials ReturnsOkResult</t>
+  </si>
+  <si>
+    <t>LoginAsync InvalidCredentials ReturnsBadRequest</t>
+  </si>
+  <si>
+    <t>RegisterAsync ValidData ReturnsOkResult</t>
+  </si>
+  <si>
+    <t>RegisterAsync InvalidData ReturnsBadRequest</t>
+  </si>
+  <si>
+    <t>Logout UserIsAuthenticated ReturnsOkResult</t>
+  </si>
+  <si>
+    <t>ForgotPassword ValidEmail ReturnsOkResult</t>
+  </si>
+  <si>
+    <t>ForgotPassword InvalidEmail ReturnsBadRequest</t>
+  </si>
+  <si>
+    <t>LoginAsync MissingFields ReturnsBadRequest</t>
+  </si>
+  <si>
+    <t>UpdateUser ValidUserInfo ReturnsOkResult</t>
+  </si>
+  <si>
+    <t>RegisterAsync EmailAlreadyExists ReturnsBadRequest</t>
+  </si>
+  <si>
+    <t>GetReviewByIdAsync ExistingId ReturnsOkWithReview</t>
+  </si>
+  <si>
+    <t>GetUserByIdAsync InvalidId ReturnsNotFound</t>
+  </si>
+  <si>
+    <t>GetUserByIdAsync ValidId ReturnsOk</t>
+  </si>
+  <si>
+    <t>GetAllRolesAsync ReturnsOkWithRoleList</t>
+  </si>
+  <si>
+    <t>UpdateUserAsync ValidRequest ReturnsOk</t>
+  </si>
+  <si>
+    <t>DeleteUserAsync ValidId ReturnsOk</t>
+  </si>
+  <si>
+    <t>GetAllUser ReturnsOk</t>
+  </si>
+  <si>
+    <t>CreateUserEndpoint ValidRequest ReturnsOk</t>
+  </si>
+  <si>
+    <t>UpdateCategory ReturnsBadRequest WhenCategoryIdMismatch</t>
+  </si>
+  <si>
+    <t>GetFoods WhenNoData ReturnsEmptyList</t>
+  </si>
+  <si>
+    <t>GetAllCategories ReturnsBadRequest WhenRequestFails</t>
+  </si>
+  <si>
+    <t>GetCategoryByName ValidName ReturnsOk</t>
+  </si>
+  <si>
+    <t>GetCategoryById NonExistingId ReturnsNotFound</t>
+  </si>
+  <si>
+    <t>DeleteCategory ValidCategoryId ReturnsOkResult</t>
+  </si>
+  <si>
+    <t>CreateCategory ValidCategory ReturnsCreatedAtAction</t>
+  </si>
+  <si>
+    <t>GetCategoryById CategoryExists ReturnsOkResult</t>
+  </si>
+  <si>
+    <t>GetAllCategories ReturnsOkResult WithCategoryList</t>
+  </si>
+  <si>
+    <t>ConfirmEmail ReturnsBadRequest WhenConfirmationFails</t>
+  </si>
+  <si>
+    <t>ConfirmEmail ReturnsOk WhenConfirmationIsSuccessful</t>
+  </si>
+  <si>
+    <t>ChangePass ReturnsUnauthorized WhenUserNotLoggedIn</t>
+  </si>
+  <si>
+    <t>ChangePass ReturnsOk WhenChangePasswordIsSuccessful</t>
   </si>
 </sst>
 </file>
@@ -4011,29 +4011,29 @@
         <v>14</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
       <c r="C23" s="49" t="s">
         <v>94</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="E23" s="49" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="F23" s="49" t="s">
-        <v>669</v>
+        <v>638</v>
       </c>
       <c r="G23" s="49" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
       <c r="I23" s="55"/>
       <c r="J23" s="43" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="K23" s="56" t="s">
         <v>26</v>
@@ -4044,29 +4044,29 @@
         <v>15</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>656</v>
+        <v>625</v>
       </c>
       <c r="C24" s="49" t="s">
         <v>94</v>
       </c>
       <c r="D24" s="49" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>658</v>
+        <v>627</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>659</v>
+        <v>628</v>
       </c>
       <c r="I24" s="49"/>
       <c r="J24" s="55" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="K24" s="56" t="s">
         <v>26</v>
@@ -4077,29 +4077,29 @@
         <v>16</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>660</v>
+        <v>629</v>
       </c>
       <c r="C25" s="49" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="49" t="s">
-        <v>661</v>
+        <v>630</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="F25" s="49" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="G25" s="49" t="s">
-        <v>662</v>
+        <v>631</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="I25" s="49"/>
       <c r="J25" s="55" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="K25" s="56" t="s">
         <v>26</v>
@@ -4110,29 +4110,29 @@
         <v>17</v>
       </c>
       <c r="B26" s="59" t="s">
-        <v>664</v>
+        <v>633</v>
       </c>
       <c r="C26" s="60" t="s">
         <v>94</v>
       </c>
       <c r="D26" s="60" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="F26" s="60" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>667</v>
+        <v>636</v>
       </c>
       <c r="H26" s="60" t="s">
-        <v>668</v>
+        <v>637</v>
       </c>
       <c r="I26" s="60"/>
       <c r="J26" s="61" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="K26" s="62" t="s">
         <v>26</v>
@@ -4143,31 +4143,31 @@
         <v>18</v>
       </c>
       <c r="B27" s="49" t="s">
-        <v>675</v>
+        <v>644</v>
       </c>
       <c r="C27" s="49" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="D27" s="49" t="s">
-        <v>677</v>
+        <v>646</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="F27" s="49" t="s">
-        <v>679</v>
+        <v>648</v>
       </c>
       <c r="G27" s="49" t="s">
-        <v>680</v>
+        <v>649</v>
       </c>
       <c r="H27" s="49" t="s">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="J27" s="49" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="K27" s="62" t="s">
         <v>26</v>
@@ -4178,29 +4178,29 @@
         <v>19</v>
       </c>
       <c r="B28" s="49" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="C28" s="49" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="D28" s="49" t="s">
-        <v>684</v>
+        <v>653</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="F28" s="49" t="s">
-        <v>685</v>
+        <v>654</v>
       </c>
       <c r="G28" s="49" t="s">
-        <v>686</v>
+        <v>655</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>687</v>
+        <v>656</v>
       </c>
       <c r="I28" s="49"/>
       <c r="J28" s="49" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="K28" s="62" t="s">
         <v>26</v>
@@ -4211,29 +4211,29 @@
         <v>20</v>
       </c>
       <c r="B29" s="49" t="s">
-        <v>688</v>
+        <v>657</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="D29" s="49" t="s">
-        <v>689</v>
+        <v>658</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="F29" s="49" t="s">
-        <v>690</v>
+        <v>659</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>691</v>
+        <v>660</v>
       </c>
       <c r="H29" s="49" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="I29" s="49"/>
       <c r="J29" s="49" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="K29" s="62" t="s">
         <v>26</v>
@@ -4244,29 +4244,29 @@
         <v>21</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="D30" s="49" t="s">
-        <v>694</v>
+        <v>663</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="F30" s="49" t="s">
-        <v>695</v>
+        <v>664</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>696</v>
+        <v>665</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>697</v>
+        <v>666</v>
       </c>
       <c r="I30" s="49"/>
       <c r="J30" s="49" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="K30" s="62" t="s">
         <v>26</v>
@@ -4277,29 +4277,29 @@
         <v>22</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>698</v>
+        <v>667</v>
       </c>
       <c r="C31" s="49" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="D31" s="49" t="s">
-        <v>699</v>
+        <v>668</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="F31" s="49" t="s">
-        <v>700</v>
+        <v>669</v>
       </c>
       <c r="G31" s="49" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
       <c r="H31" s="49" t="s">
-        <v>702</v>
+        <v>671</v>
       </c>
       <c r="I31" s="49"/>
       <c r="J31" s="49" t="s">
-        <v>704</v>
+        <v>673</v>
       </c>
       <c r="K31" s="56" t="s">
         <v>26</v>
@@ -5428,7 +5428,7 @@
         <v>310</v>
       </c>
       <c r="F66" s="35" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>317</v>
@@ -13411,8 +13411,8 @@
   </sheetPr>
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13717,16 +13717,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="74" t="s">
+        <v>701</v>
+      </c>
+      <c r="C17" s="74" t="s">
         <v>436</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="D17" s="74" t="s">
         <v>437</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="E17" s="74" t="s">
         <v>438</v>
-      </c>
-      <c r="E17" s="74" t="s">
-        <v>439</v>
       </c>
       <c r="F17" s="74" t="s">
         <v>26</v>
@@ -13740,16 +13740,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="74" t="s">
+        <v>702</v>
+      </c>
+      <c r="C18" s="74" t="s">
+        <v>439</v>
+      </c>
+      <c r="D18" s="74" t="s">
         <v>440</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="E18" s="74" t="s">
         <v>441</v>
-      </c>
-      <c r="D18" s="74" t="s">
-        <v>442</v>
-      </c>
-      <c r="E18" s="74" t="s">
-        <v>443</v>
       </c>
       <c r="F18" s="74" t="s">
         <v>26</v>
@@ -13763,16 +13763,16 @@
         <v>3</v>
       </c>
       <c r="B19" s="74" t="s">
+        <v>703</v>
+      </c>
+      <c r="C19" s="74" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19" s="74" t="s">
+        <v>443</v>
+      </c>
+      <c r="E19" s="74" t="s">
         <v>444</v>
-      </c>
-      <c r="C19" s="74" t="s">
-        <v>445</v>
-      </c>
-      <c r="D19" s="74" t="s">
-        <v>446</v>
-      </c>
-      <c r="E19" s="74" t="s">
-        <v>447</v>
       </c>
       <c r="F19" s="74" t="s">
         <v>26</v>
@@ -13786,16 +13786,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="74" t="s">
-        <v>448</v>
+        <v>704</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D20" s="74" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F20" s="74" t="s">
         <v>26</v>
@@ -13809,16 +13809,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>452</v>
+        <v>705</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D21" s="74" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E21" s="74" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F21" s="74" t="s">
         <v>26</v>
@@ -13832,16 +13832,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="74" t="s">
-        <v>456</v>
+        <v>706</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="D22" s="74" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E22" s="74" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F22" s="74" t="s">
         <v>26</v>
@@ -13855,16 +13855,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="74" t="s">
-        <v>460</v>
+        <v>707</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D23" s="74" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E23" s="74" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F23" s="74" t="s">
         <v>26</v>
@@ -13878,16 +13878,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="74" t="s">
-        <v>464</v>
+        <v>708</v>
       </c>
       <c r="C24" s="74" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D24" s="74" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E24" s="74" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F24" s="74" t="s">
         <v>26</v>
@@ -13901,16 +13901,16 @@
         <v>9</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>467</v>
+        <v>709</v>
       </c>
       <c r="C25" s="74" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="D25" s="74" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E25" s="74" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="F25" s="74" t="s">
         <v>26</v>
@@ -13924,16 +13924,16 @@
         <v>10</v>
       </c>
       <c r="B26" s="74" t="s">
-        <v>470</v>
+        <v>710</v>
       </c>
       <c r="C26" s="74" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="D26" s="74" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="E26" s="74" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="F26" s="74" t="s">
         <v>26</v>
@@ -13947,16 +13947,16 @@
         <v>11</v>
       </c>
       <c r="B27" s="74" t="s">
-        <v>474</v>
+        <v>731</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D27" s="74" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E27" s="74" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="F27" s="74" t="s">
         <v>265</v>
@@ -13970,16 +13970,16 @@
         <v>12</v>
       </c>
       <c r="B28" s="74" t="s">
-        <v>477</v>
+        <v>730</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D28" s="74" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="E28" s="74" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="F28" s="74" t="s">
         <v>26</v>
@@ -13993,16 +13993,16 @@
         <v>13</v>
       </c>
       <c r="B29" s="74" t="s">
-        <v>481</v>
+        <v>729</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D29" s="74" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="E29" s="74" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="F29" s="74" t="s">
         <v>26</v>
@@ -14016,16 +14016,16 @@
         <v>14</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>485</v>
+        <v>728</v>
       </c>
       <c r="C30" s="74" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="D30" s="74" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="E30" s="74" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="F30" s="74" t="s">
         <v>26</v>
@@ -14039,7 +14039,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C31" s="68"/>
       <c r="D31" s="68"/>
@@ -14051,16 +14051,16 @@
         <v>1</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>490</v>
+        <v>727</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="E32" s="75" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="F32" s="75" t="s">
         <v>26</v>
@@ -14071,16 +14071,16 @@
         <v>2</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>494</v>
+        <v>726</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="E33" s="75" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="F33" s="75" t="s">
         <v>26</v>
@@ -14091,16 +14091,16 @@
         <v>3</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>498</v>
+        <v>725</v>
       </c>
       <c r="C34" s="75" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="E34" s="75" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="F34" s="75" t="s">
         <v>26</v>
@@ -14111,16 +14111,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>502</v>
+        <v>724</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="D35" s="75" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="E35" s="75" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="F35" s="75" t="s">
         <v>26</v>
@@ -14131,16 +14131,16 @@
         <v>5</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>506</v>
+        <v>723</v>
       </c>
       <c r="C36" s="75" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="D36" s="75" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="E36" s="75" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="F36" s="75" t="s">
         <v>26</v>
@@ -14151,16 +14151,16 @@
         <v>6</v>
       </c>
       <c r="B37" s="75" t="s">
-        <v>510</v>
+        <v>722</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="D37" s="75" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="E37" s="75" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="F37" s="75" t="s">
         <v>26</v>
@@ -14171,16 +14171,16 @@
         <v>7</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>514</v>
+        <v>721</v>
       </c>
       <c r="C38" s="75" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
       <c r="D38" s="75" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
       <c r="E38" s="75" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
       <c r="F38" s="75" t="s">
         <v>26</v>
@@ -14191,16 +14191,16 @@
         <v>8</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>518</v>
+        <v>720</v>
       </c>
       <c r="C39" s="75" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="D39" s="75" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E39" s="75" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="F39" s="75" t="s">
         <v>26</v>
@@ -14211,16 +14211,16 @@
         <v>9</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>705</v>
+        <v>674</v>
       </c>
       <c r="C40" s="75" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="D40" s="75" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="E40" s="75" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="F40" s="75" t="s">
         <v>26</v>
@@ -14231,16 +14231,16 @@
         <v>10</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>706</v>
+        <v>675</v>
       </c>
       <c r="C41" s="75" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="D41" s="75" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="E41" s="75" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="F41" s="75" t="s">
         <v>26</v>
@@ -14251,16 +14251,16 @@
         <v>11</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>528</v>
+        <v>719</v>
       </c>
       <c r="C42" s="75" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="E42" s="75" t="s">
-        <v>531</v>
+        <v>508</v>
       </c>
       <c r="F42" s="75" t="s">
         <v>26</v>
@@ -14271,16 +14271,16 @@
         <v>12</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>707</v>
+        <v>676</v>
       </c>
       <c r="C43" s="75" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="E43" s="75" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="F43" s="75" t="s">
         <v>26</v>
@@ -14291,7 +14291,7 @@
         <v>4</v>
       </c>
       <c r="B44" s="67" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="C44" s="68"/>
       <c r="D44" s="68"/>
@@ -14303,16 +14303,16 @@
         <v>1</v>
       </c>
       <c r="B45" s="77" t="s">
-        <v>536</v>
+        <v>718</v>
       </c>
       <c r="C45" s="77" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="D45" s="77" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="E45" s="77" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="F45" s="77" t="s">
         <v>26</v>
@@ -14323,16 +14323,16 @@
         <v>2</v>
       </c>
       <c r="B46" s="77" t="s">
-        <v>540</v>
+        <v>717</v>
       </c>
       <c r="C46" s="77" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="D46" s="77" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="E46" s="77" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="F46" s="77" t="s">
         <v>26</v>
@@ -14343,16 +14343,16 @@
         <v>3</v>
       </c>
       <c r="B47" s="77" t="s">
-        <v>544</v>
+        <v>716</v>
       </c>
       <c r="C47" s="77" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="D47" s="77" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="E47" s="77" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="F47" s="77" t="s">
         <v>26</v>
@@ -14363,16 +14363,16 @@
         <v>4</v>
       </c>
       <c r="B48" s="77" t="s">
-        <v>548</v>
+        <v>715</v>
       </c>
       <c r="C48" s="77" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="D48" s="77" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="E48" s="77" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="F48" s="77" t="s">
         <v>26</v>
@@ -14383,16 +14383,16 @@
         <v>5</v>
       </c>
       <c r="B49" s="77" t="s">
-        <v>552</v>
+        <v>714</v>
       </c>
       <c r="C49" s="77" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="D49" s="77" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="E49" s="77" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="F49" s="77" t="s">
         <v>26</v>
@@ -14403,16 +14403,16 @@
         <v>6</v>
       </c>
       <c r="B50" s="77" t="s">
-        <v>556</v>
+        <v>713</v>
       </c>
       <c r="C50" s="77" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="D50" s="77" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="E50" s="77" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="F50" s="77" t="s">
         <v>26</v>
@@ -14423,16 +14423,16 @@
         <v>7</v>
       </c>
       <c r="B51" s="77" t="s">
-        <v>560</v>
+        <v>712</v>
       </c>
       <c r="C51" s="77" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="D51" s="77" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="E51" s="77" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="F51" s="77" t="s">
         <v>26</v>
@@ -14443,7 +14443,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="67" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="C52" s="68"/>
       <c r="D52" s="68"/>
@@ -14455,16 +14455,16 @@
         <v>1</v>
       </c>
       <c r="B53" s="79" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="C53" s="79" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="D53" s="79" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="E53" s="79" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="F53" s="79" t="s">
         <v>26</v>
@@ -14475,16 +14475,16 @@
         <v>2</v>
       </c>
       <c r="B54" s="79" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="C54" s="79" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="D54" s="79" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="E54" s="79" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="F54" s="79" t="s">
         <v>26</v>
@@ -14495,16 +14495,16 @@
         <v>3</v>
       </c>
       <c r="B55" s="79" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="C55" s="79" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="D55" s="79" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="E55" s="79" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="F55" s="79" t="s">
         <v>26</v>
@@ -14515,16 +14515,16 @@
         <v>4</v>
       </c>
       <c r="B56" s="79" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
       <c r="C56" s="79" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="D56" s="79" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="E56" s="79" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="F56" s="79" t="s">
         <v>26</v>
@@ -14535,16 +14535,16 @@
         <v>5</v>
       </c>
       <c r="B57" s="79" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="C57" s="79" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="D57" s="79" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="E57" s="79" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="F57" s="79" t="s">
         <v>26</v>
@@ -14555,16 +14555,16 @@
         <v>6</v>
       </c>
       <c r="B58" s="79" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="C58" s="79" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="D58" s="79" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="E58" s="79" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="F58" s="79" t="s">
         <v>26</v>
@@ -14575,16 +14575,16 @@
         <v>7</v>
       </c>
       <c r="B59" s="79" t="s">
-        <v>725</v>
+        <v>694</v>
       </c>
       <c r="C59" s="79" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="D59" s="79" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="E59" s="79" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="F59" s="79" t="s">
         <v>26</v>
@@ -14595,16 +14595,16 @@
         <v>8</v>
       </c>
       <c r="B60" s="79" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="C60" s="79" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="D60" s="79" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="E60" s="79" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="F60" s="79" t="s">
         <v>26</v>
@@ -14615,16 +14615,16 @@
         <v>9</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="C61" s="79" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="D61" s="79" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="E61" s="79" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="F61" s="79" t="s">
         <v>26</v>
@@ -14635,7 +14635,7 @@
         <v>6</v>
       </c>
       <c r="B62" s="67" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="C62" s="68"/>
       <c r="D62" s="68"/>
@@ -14647,16 +14647,16 @@
         <v>1</v>
       </c>
       <c r="B63" s="81" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="C63" s="81" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="D63" s="81" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="E63" s="81" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="F63" s="81" t="s">
         <v>26</v>
@@ -14667,16 +14667,16 @@
         <v>2</v>
       </c>
       <c r="B64" s="81" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="C64" s="81" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="D64" s="81" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="E64" s="81" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="F64" s="81" t="s">
         <v>26</v>
@@ -14687,16 +14687,16 @@
         <v>3</v>
       </c>
       <c r="B65" s="81" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="C65" s="81" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="D65" s="81" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="E65" s="81" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="F65" s="81" t="s">
         <v>26</v>
@@ -14707,16 +14707,16 @@
         <v>4</v>
       </c>
       <c r="B66" s="81" t="s">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="C66" s="81" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="D66" s="81" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="E66" s="81" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="F66" s="81" t="s">
         <v>26</v>
@@ -14727,16 +14727,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="81" t="s">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="C67" s="81" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="D67" s="81" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="E67" s="81" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="F67" s="81" t="s">
         <v>26</v>
@@ -14747,16 +14747,16 @@
         <v>6</v>
       </c>
       <c r="B68" s="81" t="s">
-        <v>718</v>
+        <v>687</v>
       </c>
       <c r="C68" s="81" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="D68" s="81" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="E68" s="81" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="F68" s="81" t="s">
         <v>26</v>
@@ -14767,16 +14767,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="81" t="s">
-        <v>717</v>
+        <v>686</v>
       </c>
       <c r="C69" s="81" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="D69" s="81" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="E69" s="81" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="F69" s="81" t="s">
         <v>26</v>
@@ -14787,16 +14787,16 @@
         <v>8</v>
       </c>
       <c r="B70" s="81" t="s">
-        <v>715</v>
+        <v>684</v>
       </c>
       <c r="C70" s="81" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
       <c r="D70" s="81" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="E70" s="81" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="F70" s="81" t="s">
         <v>26</v>
@@ -14807,7 +14807,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="67" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C71" s="68"/>
       <c r="D71" s="68"/>
@@ -14819,16 +14819,16 @@
         <v>1</v>
       </c>
       <c r="B72" s="83" t="s">
-        <v>716</v>
+        <v>685</v>
       </c>
       <c r="C72" s="83" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="D72" s="83" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="E72" s="83" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="F72" s="83" t="s">
         <v>26</v>
@@ -14839,16 +14839,16 @@
         <v>2</v>
       </c>
       <c r="B73" s="83" t="s">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="C73" s="83" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="D73" s="83" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="E73" s="83" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
       <c r="F73" s="83" t="s">
         <v>265</v>
@@ -14859,16 +14859,16 @@
         <v>3</v>
       </c>
       <c r="B74" s="83" t="s">
-        <v>713</v>
+        <v>682</v>
       </c>
       <c r="C74" s="83" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="D74" s="83" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="E74" s="83" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="F74" s="83" t="s">
         <v>26</v>
@@ -14879,16 +14879,16 @@
         <v>4</v>
       </c>
       <c r="B75" s="83" t="s">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="C75" s="83" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
       <c r="D75" s="83" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="E75" s="83" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="F75" s="83" t="s">
         <v>26</v>
@@ -14899,7 +14899,7 @@
         <v>8</v>
       </c>
       <c r="B76" s="67" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="C76" s="68"/>
       <c r="D76" s="68"/>
@@ -14911,16 +14911,16 @@
         <v>1</v>
       </c>
       <c r="B77" s="85" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="C77" s="85" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="D77" s="85" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="E77" s="85" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="F77" s="85" t="s">
         <v>26</v>
@@ -14931,16 +14931,16 @@
         <v>2</v>
       </c>
       <c r="B78" s="85" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="C78" s="85" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="D78" s="85" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="E78" s="85" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="F78" s="85" t="s">
         <v>26</v>
@@ -14951,16 +14951,16 @@
         <v>3</v>
       </c>
       <c r="B79" s="85" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="C79" s="85" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="D79" s="85" t="s">
-        <v>639</v>
+        <v>608</v>
       </c>
       <c r="E79" s="85" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="F79" s="85" t="s">
         <v>26</v>
@@ -14971,16 +14971,16 @@
         <v>4</v>
       </c>
       <c r="B80" s="85" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="C80" s="85" t="s">
-        <v>641</v>
+        <v>610</v>
       </c>
       <c r="D80" s="85" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="E80" s="85" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="F80" s="85" t="s">
         <v>26</v>
@@ -14991,16 +14991,16 @@
         <v>5</v>
       </c>
       <c r="B81" s="85" t="s">
-        <v>709</v>
+        <v>678</v>
       </c>
       <c r="C81" s="85" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="D81" s="85" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="E81" s="85" t="s">
-        <v>646</v>
+        <v>615</v>
       </c>
       <c r="F81" s="85" t="s">
         <v>26</v>
@@ -15011,16 +15011,16 @@
         <v>6</v>
       </c>
       <c r="B82" s="85" t="s">
-        <v>708</v>
+        <v>677</v>
       </c>
       <c r="C82" s="85" t="s">
-        <v>647</v>
+        <v>616</v>
       </c>
       <c r="D82" s="85" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
       <c r="E82" s="85" t="s">
-        <v>649</v>
+        <v>618</v>
       </c>
       <c r="F82" s="85" t="s">
         <v>26</v>

--- a/NanaFood - Test.xlsx
+++ b/NanaFood - Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN\NanaWebFood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9792BB5F-CAFE-4D79-A4C4-833E2DF40A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C334878A-F962-4007-A838-F04F53B5E9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
@@ -2991,7 +2991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3032,9 +3032,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3044,17 +3041,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3070,7 +3062,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3080,7 +3071,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3117,9 +3107,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3144,10 +3131,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -3159,9 +3142,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3175,11 +3155,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3230,6 +3205,35 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3451,22 +3455,23 @@
   </sheetPr>
   <dimension ref="A1:K1026"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="35" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37" style="6" customWidth="1"/>
     <col min="4" max="4" width="54.44140625" style="6" customWidth="1"/>
     <col min="5" max="5" width="23.21875" style="6" customWidth="1"/>
     <col min="6" max="6" width="45.77734375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="45.88671875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="30.44140625" style="36" customWidth="1"/>
-    <col min="9" max="10" width="22.88671875" style="6" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="45.88671875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="30.44140625" style="30" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" style="30" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="30" customWidth="1"/>
     <col min="12" max="16384" width="12.6640625" style="6"/>
   </cols>
   <sheetData>
@@ -3562,7 +3567,7 @@
       <c r="H8" s="5"/>
       <c r="J8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -3581,27 +3586,27 @@
       <c r="F9" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="31" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="79" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="14" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="94.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>1</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -3610,91 +3615,91 @@
       <c r="D10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="20" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="95.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="38" t="s">
+      <c r="G11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="81"/>
       <c r="J11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="96.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>3</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="81"/>
       <c r="J12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="21" t="s">
+      <c r="K12" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="27">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -3703,31 +3708,31 @@
       <c r="D13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="25" t="s">
         <v>42</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="32" t="s">
         <v>44</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="9"/>
       <c r="J13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="58.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="27">
+      <c r="A14" s="23">
         <v>5</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="26" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3736,31 +3741,31 @@
       <c r="D14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="64.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="27">
+      <c r="A15" s="23">
         <v>6</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -3769,31 +3774,31 @@
       <c r="D15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="38" t="s">
+      <c r="G15" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="61.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>7</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -3802,31 +3807,31 @@
       <c r="D16" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="34" t="s">
         <v>64</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="21" t="s">
+      <c r="K16" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>8</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="26" t="s">
         <v>66</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -3835,31 +3840,31 @@
       <c r="D17" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="33" t="s">
+      <c r="F17" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="34" t="s">
         <v>70</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="9"/>
       <c r="J17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="21" t="s">
+      <c r="K17" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="116.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
+      <c r="A18" s="16">
         <v>9</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="26" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -3868,448 +3873,448 @@
       <c r="D18" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="25" t="s">
         <v>74</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="40" t="s">
+      <c r="G18" s="34" t="s">
         <v>76</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="9"/>
       <c r="J18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="21" t="s">
+      <c r="K18" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="149.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
+      <c r="A19" s="16">
         <v>10</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="19"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" s="34" t="s">
         <v>82</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="24"/>
+      <c r="I19" s="81"/>
       <c r="J19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="144" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>11</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="26" t="s">
         <v>84</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="19"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="41"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="24"/>
+      <c r="I20" s="81"/>
       <c r="J20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="143.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="52">
+      <c r="A21" s="45">
         <v>12</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="26" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="41"/>
+      <c r="G21" s="35"/>
       <c r="H21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="47" t="s">
+      <c r="I21" s="81"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="84" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="55.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="53">
+      <c r="A22" s="46">
         <v>13</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="25" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="46" t="s">
+      <c r="G22" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="43" t="s">
+      <c r="I22" s="82"/>
+      <c r="J22" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="56" t="s">
+      <c r="K22" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="54">
+      <c r="A23" s="47">
         <v>14</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="44" t="s">
         <v>620</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="42" t="s">
         <v>621</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="F23" s="49" t="s">
+      <c r="F23" s="42" t="s">
         <v>638</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="42" t="s">
         <v>623</v>
       </c>
-      <c r="H23" s="49" t="s">
+      <c r="H23" s="42" t="s">
         <v>624</v>
       </c>
-      <c r="I23" s="55"/>
-      <c r="J23" s="43" t="s">
+      <c r="I23" s="48"/>
+      <c r="J23" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="K23" s="56" t="s">
+      <c r="K23" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="70.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="54">
+      <c r="A24" s="47">
         <v>15</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="44" t="s">
         <v>625</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D24" s="42" t="s">
         <v>626</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="F24" s="49" t="s">
+      <c r="F24" s="42" t="s">
         <v>639</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="42" t="s">
         <v>627</v>
       </c>
-      <c r="H24" s="49" t="s">
+      <c r="H24" s="42" t="s">
         <v>628</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="55" t="s">
+      <c r="I24" s="42"/>
+      <c r="J24" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="K24" s="56" t="s">
+      <c r="K24" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="54">
+      <c r="A25" s="47">
         <v>16</v>
       </c>
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="44" t="s">
         <v>629</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="49" t="s">
+      <c r="D25" s="42" t="s">
         <v>630</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="42" t="s">
         <v>622</v>
       </c>
-      <c r="F25" s="49" t="s">
+      <c r="F25" s="42" t="s">
         <v>640</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="42" t="s">
         <v>631</v>
       </c>
-      <c r="H25" s="49" t="s">
+      <c r="H25" s="42" t="s">
         <v>632</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="55" t="s">
+      <c r="I25" s="42"/>
+      <c r="J25" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="K25" s="56" t="s">
+      <c r="K25" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="58">
+      <c r="A26" s="49">
         <v>17</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="50" t="s">
         <v>633</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="51" t="s">
         <v>634</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="51" t="s">
         <v>641</v>
       </c>
-      <c r="G26" s="60" t="s">
+      <c r="G26" s="51" t="s">
         <v>636</v>
       </c>
-      <c r="H26" s="60" t="s">
+      <c r="H26" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="I26" s="60"/>
-      <c r="J26" s="61" t="s">
+      <c r="I26" s="51"/>
+      <c r="J26" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="K26" s="62" t="s">
+      <c r="K26" s="86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54">
+      <c r="A27" s="47">
         <v>18</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="42" t="s">
         <v>644</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="42" t="s">
         <v>646</v>
       </c>
-      <c r="E27" s="49" t="s">
+      <c r="E27" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="F27" s="49" t="s">
+      <c r="F27" s="42" t="s">
         <v>648</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="42" t="s">
         <v>649</v>
       </c>
-      <c r="H27" s="49" t="s">
+      <c r="H27" s="42" t="s">
         <v>650</v>
       </c>
-      <c r="I27" s="49" t="s">
+      <c r="I27" s="42" t="s">
         <v>651</v>
       </c>
-      <c r="J27" s="49" t="s">
+      <c r="J27" s="42" t="s">
         <v>672</v>
       </c>
-      <c r="K27" s="62" t="s">
+      <c r="K27" s="86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="108.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="54">
+      <c r="A28" s="47">
         <v>19</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="42" t="s">
         <v>652</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="42" t="s">
         <v>653</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="F28" s="49" t="s">
+      <c r="F28" s="42" t="s">
         <v>654</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="42" t="s">
         <v>655</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="42" t="s">
         <v>656</v>
       </c>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49" t="s">
+      <c r="I28" s="42"/>
+      <c r="J28" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="K28" s="62" t="s">
+      <c r="K28" s="86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="90.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="54">
+      <c r="A29" s="47">
         <v>20</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="42" t="s">
         <v>657</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="42" t="s">
         <v>658</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="F29" s="49" t="s">
+      <c r="F29" s="42" t="s">
         <v>659</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="42" t="s">
         <v>661</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49" t="s">
+      <c r="I29" s="42"/>
+      <c r="J29" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="K29" s="62" t="s">
+      <c r="K29" s="86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="109.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="54">
+      <c r="A30" s="47">
         <v>21</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="42" t="s">
         <v>663</v>
       </c>
-      <c r="E30" s="49" t="s">
+      <c r="E30" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="42" t="s">
         <v>664</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="42" t="s">
         <v>665</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="42" t="s">
         <v>666</v>
       </c>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49" t="s">
+      <c r="I30" s="42"/>
+      <c r="J30" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="K30" s="62" t="s">
+      <c r="K30" s="86" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="106.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="54">
+      <c r="A31" s="47">
         <v>22</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="42" t="s">
         <v>667</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="42" t="s">
         <v>645</v>
       </c>
-      <c r="D31" s="49" t="s">
+      <c r="D31" s="42" t="s">
         <v>668</v>
       </c>
-      <c r="E31" s="49" t="s">
+      <c r="E31" s="42" t="s">
         <v>647</v>
       </c>
-      <c r="F31" s="49" t="s">
+      <c r="F31" s="42" t="s">
         <v>669</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="42" t="s">
         <v>670</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49" t="s">
+      <c r="I31" s="42"/>
+      <c r="J31" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="K31" s="56" t="s">
+      <c r="K31" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="209.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="54">
+      <c r="A32" s="47">
         <v>23</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="26" t="s">
         <v>100</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -4318,7 +4323,7 @@
       <c r="D32" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F32" s="10" t="s">
@@ -4327,22 +4332,22 @@
       <c r="G32" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="33" t="s">
+      <c r="I32" s="81"/>
+      <c r="J32" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="56" t="s">
+      <c r="K32" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="197.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="54">
+      <c r="A33" s="47">
         <v>24</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="26" t="s">
         <v>108</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -4351,7 +4356,7 @@
       <c r="D33" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="19" t="s">
+      <c r="E33" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F33" s="10" t="s">
@@ -4363,19 +4368,19 @@
       <c r="H33" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="33" t="s">
+      <c r="I33" s="81"/>
+      <c r="J33" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="K33" s="56" t="s">
+      <c r="K33" s="85" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="209.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="54">
+      <c r="A34" s="47">
         <v>25</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="26" t="s">
         <v>115</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -4384,7 +4389,7 @@
       <c r="D34" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F34" s="10" t="s">
@@ -4396,19 +4401,19 @@
       <c r="H34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="I34" s="24"/>
+      <c r="I34" s="81"/>
       <c r="J34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K34" s="21" t="s">
+      <c r="K34" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="237.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="54">
+      <c r="A35" s="47">
         <v>26</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="26" t="s">
         <v>122</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -4417,7 +4422,7 @@
       <c r="D35" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="19" t="s">
+      <c r="E35" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F35" s="10" t="s">
@@ -4429,19 +4434,19 @@
       <c r="H35" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I35" s="24"/>
+      <c r="I35" s="81"/>
       <c r="J35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K35" s="21" t="s">
+      <c r="K35" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="126" x14ac:dyDescent="0.35">
-      <c r="A36" s="54">
+      <c r="A36" s="47">
         <v>27</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="26" t="s">
         <v>129</v>
       </c>
       <c r="C36" s="10" t="s">
@@ -4450,7 +4455,7 @@
       <c r="D36" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F36" s="10" t="s">
@@ -4462,19 +4467,19 @@
       <c r="H36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I36" s="24"/>
+      <c r="I36" s="81"/>
       <c r="J36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K36" s="21" t="s">
+      <c r="K36" s="83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="54">
+    <row r="37" spans="1:11" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="47">
         <v>28</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="26" t="s">
         <v>135</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -4483,7 +4488,7 @@
       <c r="D37" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="E37" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F37" s="10" t="s">
@@ -4495,19 +4500,19 @@
       <c r="H37" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I37" s="24"/>
+      <c r="I37" s="81"/>
       <c r="J37" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K37" s="21" t="s">
+      <c r="K37" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="144" x14ac:dyDescent="0.35">
-      <c r="A38" s="54">
+      <c r="A38" s="47">
         <v>29</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="26" t="s">
         <v>141</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -4516,7 +4521,7 @@
       <c r="D38" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F38" s="10" t="s">
@@ -4528,19 +4533,19 @@
       <c r="H38" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I38" s="24"/>
+      <c r="I38" s="81"/>
       <c r="J38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K38" s="21" t="s">
+      <c r="K38" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="126" x14ac:dyDescent="0.35">
-      <c r="A39" s="54">
+      <c r="A39" s="47">
         <v>30</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="26" t="s">
         <v>147</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -4549,7 +4554,7 @@
       <c r="D39" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F39" s="10" t="s">
@@ -4561,19 +4566,19 @@
       <c r="H39" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="I39" s="24"/>
+      <c r="I39" s="81"/>
       <c r="J39" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K39" s="21" t="s">
+      <c r="K39" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="126" x14ac:dyDescent="0.35">
-      <c r="A40" s="54">
+      <c r="A40" s="47">
         <v>31</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="26" t="s">
         <v>153</v>
       </c>
       <c r="C40" s="10" t="s">
@@ -4582,7 +4587,7 @@
       <c r="D40" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F40" s="10" t="s">
@@ -4594,19 +4599,19 @@
       <c r="H40" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I40" s="24"/>
+      <c r="I40" s="81"/>
       <c r="J40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="21" t="s">
+      <c r="K40" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="126" x14ac:dyDescent="0.35">
-      <c r="A41" s="54">
+      <c r="A41" s="47">
         <v>32</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="26" t="s">
         <v>159</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -4615,7 +4620,7 @@
       <c r="D41" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F41" s="10" t="s">
@@ -4627,19 +4632,19 @@
       <c r="H41" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I41" s="24"/>
+      <c r="I41" s="81"/>
       <c r="J41" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K41" s="21" t="s">
+      <c r="K41" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="162" x14ac:dyDescent="0.35">
-      <c r="A42" s="54">
+      <c r="A42" s="47">
         <v>33</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="26" t="s">
         <v>165</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -4648,7 +4653,7 @@
       <c r="D42" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F42" s="10" t="s">
@@ -4660,19 +4665,19 @@
       <c r="H42" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I42" s="24"/>
+      <c r="I42" s="81"/>
       <c r="J42" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K42" s="21" t="s">
+      <c r="K42" s="83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="198" x14ac:dyDescent="0.35">
-      <c r="A43" s="54">
+    <row r="43" spans="1:11" ht="216" x14ac:dyDescent="0.35">
+      <c r="A43" s="47">
         <v>34</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="26" t="s">
         <v>171</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -4681,7 +4686,7 @@
       <c r="D43" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="10" t="s">
@@ -4693,19 +4698,19 @@
       <c r="H43" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="24"/>
+      <c r="I43" s="81"/>
       <c r="J43" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K43" s="21" t="s">
+      <c r="K43" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="252" x14ac:dyDescent="0.35">
-      <c r="A44" s="54">
+      <c r="A44" s="47">
         <v>35</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -4714,7 +4719,7 @@
       <c r="D44" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F44" s="10" t="s">
@@ -4726,19 +4731,19 @@
       <c r="H44" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="24"/>
+      <c r="I44" s="81"/>
       <c r="J44" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K44" s="21" t="s">
+      <c r="K44" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="234" x14ac:dyDescent="0.35">
-      <c r="A45" s="54">
+      <c r="A45" s="47">
         <v>36</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="26" t="s">
         <v>182</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -4747,7 +4752,7 @@
       <c r="D45" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F45" s="10" t="s">
@@ -4759,19 +4764,19 @@
       <c r="H45" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I45" s="24"/>
+      <c r="I45" s="81"/>
       <c r="J45" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K45" s="21" t="s">
+      <c r="K45" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="252" x14ac:dyDescent="0.35">
-      <c r="A46" s="54">
+      <c r="A46" s="47">
         <v>37</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="26" t="s">
         <v>188</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -4780,7 +4785,7 @@
       <c r="D46" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -4792,19 +4797,19 @@
       <c r="H46" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="I46" s="24"/>
+      <c r="I46" s="81"/>
       <c r="J46" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K46" s="21" t="s">
+      <c r="K46" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="198" x14ac:dyDescent="0.35">
-      <c r="A47" s="54">
+      <c r="A47" s="47">
         <v>38</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="26" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -4813,7 +4818,7 @@
       <c r="D47" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F47" s="10" t="s">
@@ -4825,19 +4830,19 @@
       <c r="H47" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I47" s="24"/>
+      <c r="I47" s="81"/>
       <c r="J47" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K47" s="21" t="s">
+      <c r="K47" s="83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="234" x14ac:dyDescent="0.35">
-      <c r="A48" s="54">
+    <row r="48" spans="1:11" ht="252" x14ac:dyDescent="0.35">
+      <c r="A48" s="47">
         <v>39</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="26" t="s">
         <v>197</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -4846,7 +4851,7 @@
       <c r="D48" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E48" s="19" t="s">
+      <c r="E48" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F48" s="10" t="s">
@@ -4858,19 +4863,19 @@
       <c r="H48" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="I48" s="24"/>
+      <c r="I48" s="81"/>
       <c r="J48" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="21" t="s">
+      <c r="K48" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="234" x14ac:dyDescent="0.35">
-      <c r="A49" s="54">
+      <c r="A49" s="47">
         <v>40</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="26" t="s">
         <v>202</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -4879,7 +4884,7 @@
       <c r="D49" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F49" s="10" t="s">
@@ -4891,19 +4896,19 @@
       <c r="H49" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I49" s="24"/>
+      <c r="I49" s="81"/>
       <c r="J49" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K49" s="21" t="s">
+      <c r="K49" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="252" x14ac:dyDescent="0.35">
-      <c r="A50" s="54">
+      <c r="A50" s="47">
         <v>41</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="26" t="s">
         <v>207</v>
       </c>
       <c r="C50" s="10" t="s">
@@ -4912,7 +4917,7 @@
       <c r="D50" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="19" t="s">
+      <c r="E50" s="18" t="s">
         <v>103</v>
       </c>
       <c r="F50" s="10" t="s">
@@ -4924,19 +4929,19 @@
       <c r="H50" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="I50" s="24"/>
+      <c r="I50" s="81"/>
       <c r="J50" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K50" s="21" t="s">
+      <c r="K50" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="90" x14ac:dyDescent="0.35">
-      <c r="A51" s="54">
+      <c r="A51" s="47">
         <v>42</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="26" t="s">
         <v>212</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -4945,7 +4950,7 @@
       <c r="D51" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="E51" s="19" t="s">
+      <c r="E51" s="18" t="s">
         <v>215</v>
       </c>
       <c r="F51" s="10" t="s">
@@ -4957,19 +4962,19 @@
       <c r="H51" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I51" s="24"/>
+      <c r="I51" s="81"/>
       <c r="J51" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K51" s="21" t="s">
+      <c r="K51" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="126" x14ac:dyDescent="0.35">
-      <c r="A52" s="54">
+      <c r="A52" s="47">
         <v>43</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="26" t="s">
         <v>220</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -4978,7 +4983,7 @@
       <c r="D52" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="E52" s="19" t="s">
+      <c r="E52" s="18" t="s">
         <v>215</v>
       </c>
       <c r="F52" s="10" t="s">
@@ -4990,19 +4995,19 @@
       <c r="H52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="I52" s="24"/>
+      <c r="I52" s="81"/>
       <c r="J52" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K52" s="21" t="s">
+      <c r="K52" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="90" x14ac:dyDescent="0.35">
-      <c r="A53" s="54">
+      <c r="A53" s="47">
         <v>44</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="26" t="s">
         <v>226</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -5011,7 +5016,7 @@
       <c r="D53" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="E53" s="19" t="s">
+      <c r="E53" s="18" t="s">
         <v>229</v>
       </c>
       <c r="F53" s="10" t="s">
@@ -5023,19 +5028,19 @@
       <c r="H53" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I53" s="24"/>
+      <c r="I53" s="81"/>
       <c r="J53" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K53" s="21" t="s">
+      <c r="K53" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="144" x14ac:dyDescent="0.35">
-      <c r="A54" s="54">
+      <c r="A54" s="47">
         <v>45</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="26" t="s">
         <v>230</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -5044,7 +5049,7 @@
       <c r="D54" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="18" t="s">
         <v>233</v>
       </c>
       <c r="F54" s="10" t="s">
@@ -5056,17 +5061,17 @@
       <c r="H54" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I54" s="24"/>
+      <c r="I54" s="81"/>
       <c r="J54" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K54" s="21"/>
+      <c r="K54" s="83"/>
     </row>
     <row r="55" spans="1:11" ht="144" x14ac:dyDescent="0.35">
-      <c r="A55" s="54">
+      <c r="A55" s="47">
         <v>46</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="26" t="s">
         <v>238</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -5075,7 +5080,7 @@
       <c r="D55" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>241</v>
       </c>
       <c r="F55" s="10" t="s">
@@ -5087,17 +5092,17 @@
       <c r="H55" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="I55" s="24"/>
+      <c r="I55" s="81"/>
       <c r="J55" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K55" s="21"/>
+      <c r="K55" s="83"/>
     </row>
     <row r="56" spans="1:11" ht="126" x14ac:dyDescent="0.35">
-      <c r="A56" s="54">
+      <c r="A56" s="47">
         <v>47</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="26" t="s">
         <v>245</v>
       </c>
       <c r="C56" s="10" t="s">
@@ -5106,7 +5111,7 @@
       <c r="D56" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="18" t="s">
         <v>248</v>
       </c>
       <c r="F56" s="10" t="s">
@@ -5118,17 +5123,17 @@
       <c r="H56" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I56" s="24"/>
+      <c r="I56" s="81"/>
       <c r="J56" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K56" s="21"/>
+      <c r="K56" s="83"/>
     </row>
     <row r="57" spans="1:11" ht="162" x14ac:dyDescent="0.35">
-      <c r="A57" s="54">
+      <c r="A57" s="47">
         <v>48</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="26" t="s">
         <v>251</v>
       </c>
       <c r="C57" s="10" t="s">
@@ -5137,7 +5142,7 @@
       <c r="D57" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="18" t="s">
         <v>254</v>
       </c>
       <c r="F57" s="10" t="s">
@@ -5149,17 +5154,17 @@
       <c r="H57" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="I57" s="24"/>
+      <c r="I57" s="81"/>
       <c r="J57" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="K57" s="21"/>
+      <c r="K57" s="83"/>
     </row>
     <row r="58" spans="1:11" ht="180" x14ac:dyDescent="0.35">
-      <c r="A58" s="54">
+      <c r="A58" s="47">
         <v>49</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="26" t="s">
         <v>258</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -5168,7 +5173,7 @@
       <c r="D58" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="18" t="s">
         <v>261</v>
       </c>
       <c r="F58" s="10" t="s">
@@ -5180,19 +5185,19 @@
       <c r="H58" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="I58" s="24"/>
+      <c r="I58" s="81"/>
       <c r="J58" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K58" s="21" t="s">
+      <c r="K58" s="83" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="180" x14ac:dyDescent="0.35">
-      <c r="A59" s="54">
+    <row r="59" spans="1:11" ht="198" x14ac:dyDescent="0.35">
+      <c r="A59" s="47">
         <v>50</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="26" t="s">
         <v>266</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -5201,7 +5206,7 @@
       <c r="D59" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E59" s="19" t="s">
+      <c r="E59" s="18" t="s">
         <v>269</v>
       </c>
       <c r="F59" s="10" t="s">
@@ -5213,19 +5218,19 @@
       <c r="H59" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="I59" s="24"/>
+      <c r="I59" s="81"/>
       <c r="J59" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K59" s="21" t="s">
+      <c r="K59" s="83" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="144" x14ac:dyDescent="0.35">
-      <c r="A60" s="54">
+      <c r="A60" s="47">
         <v>51</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="26" t="s">
         <v>272</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -5234,7 +5239,7 @@
       <c r="D60" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E60" s="19" t="s">
+      <c r="E60" s="18" t="s">
         <v>275</v>
       </c>
       <c r="F60" s="10" t="s">
@@ -5246,19 +5251,19 @@
       <c r="H60" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="I60" s="24"/>
+      <c r="I60" s="81"/>
       <c r="J60" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="K60" s="21" t="s">
+      <c r="K60" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="72" x14ac:dyDescent="0.35">
-      <c r="A61" s="54">
+      <c r="A61" s="47">
         <v>52</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="26" t="s">
         <v>280</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -5267,7 +5272,7 @@
       <c r="D61" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>283</v>
       </c>
       <c r="F61" s="10" t="s">
@@ -5279,19 +5284,19 @@
       <c r="H61" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="I61" s="24"/>
+      <c r="I61" s="81"/>
       <c r="J61" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="K61" s="21" t="s">
+      <c r="K61" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="144" x14ac:dyDescent="0.35">
-      <c r="A62" s="54">
+      <c r="A62" s="47">
         <v>53</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="26" t="s">
         <v>286</v>
       </c>
       <c r="C62" s="10" t="s">
@@ -5300,7 +5305,7 @@
       <c r="D62" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E62" s="19" t="s">
+      <c r="E62" s="18" t="s">
         <v>289</v>
       </c>
       <c r="F62" s="10" t="s">
@@ -5310,19 +5315,19 @@
       <c r="H62" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="I62" s="24"/>
+      <c r="I62" s="81"/>
       <c r="J62" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="K62" s="21" t="s">
+      <c r="K62" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="126" x14ac:dyDescent="0.35">
-      <c r="A63" s="54">
+      <c r="A63" s="47">
         <v>54</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="26" t="s">
         <v>293</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -5331,7 +5336,7 @@
       <c r="D63" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="E63" s="19" t="s">
+      <c r="E63" s="18" t="s">
         <v>296</v>
       </c>
       <c r="F63" s="10" t="s">
@@ -5341,19 +5346,19 @@
       <c r="H63" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="I63" s="24"/>
+      <c r="I63" s="81"/>
       <c r="J63" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="K63" s="21" t="s">
+      <c r="K63" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="90" x14ac:dyDescent="0.35">
-      <c r="A64" s="54">
+      <c r="A64" s="47">
         <v>55</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="26" t="s">
         <v>300</v>
       </c>
       <c r="C64" s="10" t="s">
@@ -5362,7 +5367,7 @@
       <c r="D64" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="E64" s="19" t="s">
+      <c r="E64" s="18" t="s">
         <v>303</v>
       </c>
       <c r="F64" s="10" t="s">
@@ -5372,19 +5377,19 @@
       <c r="H64" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="I64" s="24"/>
+      <c r="I64" s="81"/>
       <c r="J64" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="K64" s="21" t="s">
+      <c r="K64" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="108" x14ac:dyDescent="0.35">
-      <c r="A65" s="54">
+      <c r="A65" s="47">
         <v>56</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="26" t="s">
         <v>307</v>
       </c>
       <c r="C65" s="10" t="s">
@@ -5393,7 +5398,7 @@
       <c r="D65" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E65" s="19" t="s">
+      <c r="E65" s="18" t="s">
         <v>310</v>
       </c>
       <c r="F65" s="10" t="s">
@@ -5403,19 +5408,19 @@
       <c r="H65" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="I65" s="24"/>
+      <c r="I65" s="81"/>
       <c r="J65" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K65" s="21" t="s">
+      <c r="K65" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="108" x14ac:dyDescent="0.35">
-      <c r="A66" s="54">
+      <c r="A66" s="47">
         <v>57</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="26" t="s">
         <v>314</v>
       </c>
       <c r="C66" s="10" t="s">
@@ -5424,10 +5429,10 @@
       <c r="D66" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="E66" s="19" t="s">
+      <c r="E66" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="F66" s="35" t="s">
+      <c r="F66" s="29" t="s">
         <v>619</v>
       </c>
       <c r="G66" s="10" t="s">
@@ -5436,19 +5441,19 @@
       <c r="H66" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="I66" s="24"/>
+      <c r="I66" s="81"/>
       <c r="J66" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K66" s="21" t="s">
+      <c r="K66" s="83" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="108" x14ac:dyDescent="0.35">
-      <c r="A67" s="54">
+      <c r="A67" s="47">
         <v>58</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="26" t="s">
         <v>319</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -5457,7 +5462,7 @@
       <c r="D67" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="18" t="s">
         <v>310</v>
       </c>
       <c r="F67" s="10" t="s">
@@ -5469,19 +5474,19 @@
       <c r="H67" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="I67" s="24"/>
+      <c r="I67" s="81"/>
       <c r="J67" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K67" s="21" t="s">
+      <c r="K67" s="83" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="108" x14ac:dyDescent="0.35">
-      <c r="A68" s="54">
+      <c r="A68" s="47">
         <v>59</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="26" t="s">
         <v>325</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -5490,7 +5495,7 @@
       <c r="D68" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E68" s="19" t="s">
+      <c r="E68" s="18" t="s">
         <v>310</v>
       </c>
       <c r="F68" s="10" t="s">
@@ -5500,19 +5505,19 @@
       <c r="H68" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="I68" s="24"/>
+      <c r="I68" s="81"/>
       <c r="J68" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K68" s="21" t="s">
+      <c r="K68" s="83" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="108" x14ac:dyDescent="0.35">
-      <c r="A69" s="54">
+      <c r="A69" s="47">
         <v>60</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="26" t="s">
         <v>330</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -5521,7 +5526,7 @@
       <c r="D69" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="E69" s="19" t="s">
+      <c r="E69" s="18" t="s">
         <v>333</v>
       </c>
       <c r="F69" s="10" t="s">
@@ -5531,19 +5536,19 @@
       <c r="H69" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="I69" s="24"/>
+      <c r="I69" s="81"/>
       <c r="J69" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="K69" s="21" t="s">
+      <c r="K69" s="83" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="108" x14ac:dyDescent="0.35">
-      <c r="A70" s="54">
+    <row r="70" spans="1:11" ht="126" x14ac:dyDescent="0.35">
+      <c r="A70" s="47">
         <v>61</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="26" t="s">
         <v>337</v>
       </c>
       <c r="C70" s="10" t="s">
@@ -5552,7 +5557,7 @@
       <c r="D70" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E70" s="19" t="s">
+      <c r="E70" s="18" t="s">
         <v>340</v>
       </c>
       <c r="F70" s="10" t="s">
@@ -5564,19 +5569,19 @@
       <c r="H70" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="I70" s="24"/>
+      <c r="I70" s="81"/>
       <c r="J70" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="K70" s="21" t="s">
+      <c r="K70" s="83" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="126" x14ac:dyDescent="0.35">
-      <c r="A71" s="54">
+    <row r="71" spans="1:11" ht="162" x14ac:dyDescent="0.35">
+      <c r="A71" s="47">
         <v>62</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="26" t="s">
         <v>345</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -5585,7 +5590,7 @@
       <c r="D71" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E71" s="19" t="s">
+      <c r="E71" s="18" t="s">
         <v>340</v>
       </c>
       <c r="F71" s="10" t="s">
@@ -5597,19 +5602,19 @@
       <c r="H71" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="I71" s="24"/>
+      <c r="I71" s="81"/>
       <c r="J71" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="K71" s="21" t="s">
+      <c r="K71" s="83" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="126" x14ac:dyDescent="0.35">
-      <c r="A72" s="54">
+    <row r="72" spans="1:11" ht="180" x14ac:dyDescent="0.35">
+      <c r="A72" s="47">
         <v>63</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="26" t="s">
         <v>352</v>
       </c>
       <c r="C72" s="10" t="s">
@@ -5618,7 +5623,7 @@
       <c r="D72" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="E72" s="19" t="s">
+      <c r="E72" s="18" t="s">
         <v>340</v>
       </c>
       <c r="F72" s="8" t="s">
@@ -5630,19 +5635,19 @@
       <c r="H72" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="I72" s="34"/>
+      <c r="I72" s="35"/>
       <c r="J72" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="K72" s="21" t="s">
+      <c r="K72" s="83" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="108" x14ac:dyDescent="0.35">
-      <c r="A73" s="54">
+      <c r="A73" s="47">
         <v>64</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="26" t="s">
         <v>359</v>
       </c>
       <c r="C73" s="8" t="s">
@@ -5651,7 +5656,7 @@
       <c r="D73" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="18" t="s">
         <v>340</v>
       </c>
       <c r="F73" s="8" t="s">
@@ -5663,19 +5668,19 @@
       <c r="H73" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="I73" s="34"/>
+      <c r="I73" s="35"/>
       <c r="J73" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="K73" s="21" t="s">
+      <c r="K73" s="83" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="180" x14ac:dyDescent="0.35">
-      <c r="A74" s="54">
+      <c r="A74" s="47">
         <v>65</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="26" t="s">
         <v>366</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -5684,7 +5689,7 @@
       <c r="D74" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="18" t="s">
         <v>369</v>
       </c>
       <c r="F74" s="8" t="s">
@@ -5696,19 +5701,19 @@
       <c r="H74" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="I74" s="34"/>
+      <c r="I74" s="35"/>
       <c r="J74" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K74" s="21" t="s">
+      <c r="K74" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="216" x14ac:dyDescent="0.35">
-      <c r="A75" s="54">
+      <c r="A75" s="47">
         <v>66</v>
       </c>
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="26" t="s">
         <v>372</v>
       </c>
       <c r="C75" s="8" t="s">
@@ -5717,7 +5722,7 @@
       <c r="D75" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E75" s="19" t="s">
+      <c r="E75" s="18" t="s">
         <v>369</v>
       </c>
       <c r="F75" s="8" t="s">
@@ -5729,19 +5734,19 @@
       <c r="H75" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="I75" s="34"/>
+      <c r="I75" s="35"/>
       <c r="J75" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K75" s="21" t="s">
+      <c r="K75" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="180" x14ac:dyDescent="0.35">
-      <c r="A76" s="54">
+      <c r="A76" s="47">
         <v>67</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="26" t="s">
         <v>377</v>
       </c>
       <c r="C76" s="8" t="s">
@@ -5750,7 +5755,7 @@
       <c r="D76" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E76" s="19" t="s">
+      <c r="E76" s="18" t="s">
         <v>369</v>
       </c>
       <c r="F76" s="8" t="s">
@@ -5762,19 +5767,19 @@
       <c r="H76" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="I76" s="34"/>
+      <c r="I76" s="35"/>
       <c r="J76" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K76" s="21" t="s">
+      <c r="K76" s="83" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="198" x14ac:dyDescent="0.35">
-      <c r="A77" s="54">
+      <c r="A77" s="47">
         <v>68</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="26" t="s">
         <v>382</v>
       </c>
       <c r="C77" s="8" t="s">
@@ -5783,7 +5788,7 @@
       <c r="D77" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E77" s="19" t="s">
+      <c r="E77" s="18" t="s">
         <v>369</v>
       </c>
       <c r="F77" s="8" t="s">
@@ -5795,11 +5800,11 @@
       <c r="H77" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="I77" s="34"/>
+      <c r="I77" s="35"/>
       <c r="J77" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K77" s="21" t="s">
+      <c r="K77" s="83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -13411,14 +13416,14 @@
   </sheetPr>
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="43.44140625" customWidth="1"/>
     <col min="4" max="5" width="53.33203125" customWidth="1"/>
   </cols>
@@ -13429,306 +13434,306 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="73" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="54" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="55" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="70">
+      <c r="A4" s="57">
         <v>1</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="74" t="s">
         <v>393</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="58" t="s">
         <v>394</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="58" t="s">
         <v>395</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="58" t="s">
         <v>396</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70">
+      <c r="A5" s="57">
         <v>2</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="74" t="s">
         <v>397</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="58" t="s">
         <v>398</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="58" t="s">
         <v>399</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="58" t="s">
         <v>400</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70">
+      <c r="A6" s="57">
         <v>3</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="74" t="s">
         <v>401</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="58" t="s">
         <v>402</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="58" t="s">
         <v>403</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="58" t="s">
         <v>404</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="57">
         <v>4</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="74" t="s">
         <v>405</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="58" t="s">
         <v>406</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="58" t="s">
         <v>407</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70">
+      <c r="A8" s="57">
         <v>5</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="75" t="s">
         <v>409</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="58" t="s">
         <v>410</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="57">
         <v>6</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="74" t="s">
         <v>412</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="58" t="s">
         <v>413</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="58" t="s">
         <v>414</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70">
+      <c r="A10" s="57">
         <v>7</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="74" t="s">
         <v>416</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="58" t="s">
         <v>417</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="58" t="s">
         <v>411</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70">
+      <c r="A11" s="57">
         <v>8</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="74" t="s">
         <v>418</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="58" t="s">
         <v>419</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="58" t="s">
         <v>414</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="58" t="s">
         <v>415</v>
       </c>
-      <c r="F11" s="72" t="s">
+      <c r="F11" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70">
+      <c r="A12" s="57">
         <v>9</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="74" t="s">
         <v>420</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="58" t="s">
         <v>421</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="58" t="s">
         <v>422</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="58" t="s">
         <v>423</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="70">
+      <c r="A13" s="57">
         <v>10</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="74" t="s">
         <v>424</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="58" t="s">
         <v>425</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="58" t="s">
         <v>426</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="58" t="s">
         <v>427</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="70">
+      <c r="A14" s="57">
         <v>11</v>
       </c>
-      <c r="B14" s="87" t="s">
+      <c r="B14" s="74" t="s">
         <v>428</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="58" t="s">
         <v>429</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="58" t="s">
         <v>430</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="58" t="s">
         <v>408</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="70">
+      <c r="A15" s="57">
         <v>12</v>
       </c>
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="74" t="s">
         <v>431</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="58" t="s">
         <v>432</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="58" t="s">
         <v>433</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="58" t="s">
         <v>434</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="59" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66">
+      <c r="A16" s="56">
         <v>2</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="76" t="s">
         <v>435</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
     </row>
     <row r="17" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73">
+      <c r="A17" s="60">
         <v>1</v>
       </c>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="61" t="s">
         <v>701</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="61" t="s">
         <v>436</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="61" t="s">
         <v>437</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="61" t="s">
         <v>438</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G17" s="3"/>
@@ -13736,22 +13741,22 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="73">
+      <c r="A18" s="60">
         <v>2</v>
       </c>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="61" t="s">
         <v>702</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="61" t="s">
         <v>439</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="61" t="s">
         <v>440</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="61" t="s">
         <v>441</v>
       </c>
-      <c r="F18" s="74" t="s">
+      <c r="F18" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="3"/>
@@ -13759,22 +13764,22 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="73">
+      <c r="A19" s="60">
         <v>3</v>
       </c>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="61" t="s">
         <v>703</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="61" t="s">
         <v>442</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="61" t="s">
         <v>443</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="61" t="s">
         <v>444</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="3"/>
@@ -13782,22 +13787,22 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="73">
+      <c r="A20" s="60">
         <v>4</v>
       </c>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="61" t="s">
         <v>704</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="61" t="s">
         <v>445</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="61" t="s">
         <v>446</v>
       </c>
-      <c r="E20" s="74" t="s">
+      <c r="E20" s="61" t="s">
         <v>447</v>
       </c>
-      <c r="F20" s="74" t="s">
+      <c r="F20" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="3"/>
@@ -13805,22 +13810,22 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="73">
+      <c r="A21" s="60">
         <v>5</v>
       </c>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="61" t="s">
         <v>705</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="E21" s="74" t="s">
+      <c r="E21" s="61" t="s">
         <v>450</v>
       </c>
-      <c r="F21" s="74" t="s">
+      <c r="F21" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="3"/>
@@ -13828,22 +13833,22 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="73">
+      <c r="A22" s="60">
         <v>6</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="61" t="s">
         <v>706</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="61" t="s">
         <v>451</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="61" t="s">
         <v>452</v>
       </c>
-      <c r="E22" s="74" t="s">
+      <c r="E22" s="61" t="s">
         <v>453</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="3"/>
@@ -13851,22 +13856,22 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73">
+      <c r="A23" s="60">
         <v>7</v>
       </c>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="61" t="s">
         <v>707</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="61" t="s">
         <v>454</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="61" t="s">
         <v>455</v>
       </c>
-      <c r="E23" s="74" t="s">
+      <c r="E23" s="61" t="s">
         <v>456</v>
       </c>
-      <c r="F23" s="74" t="s">
+      <c r="F23" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="3"/>
@@ -13874,22 +13879,22 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="73">
+      <c r="A24" s="60">
         <v>8</v>
       </c>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="61" t="s">
         <v>708</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="61" t="s">
         <v>457</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="E24" s="74" t="s">
+      <c r="E24" s="61" t="s">
         <v>458</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="3"/>
@@ -13897,22 +13902,22 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="73">
+      <c r="A25" s="60">
         <v>9</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="61" t="s">
         <v>709</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="61" t="s">
         <v>459</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="61" t="s">
         <v>443</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="61" t="s">
         <v>460</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G25" s="3"/>
@@ -13920,22 +13925,22 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="73">
+      <c r="A26" s="60">
         <v>10</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="61" t="s">
         <v>710</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="61" t="s">
         <v>461</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="61" t="s">
         <v>462</v>
       </c>
-      <c r="E26" s="74" t="s">
+      <c r="E26" s="61" t="s">
         <v>463</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G26" s="3"/>
@@ -13943,22 +13948,22 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="73">
+      <c r="A27" s="60">
         <v>11</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="61" t="s">
         <v>731</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="61" t="s">
         <v>464</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="61" t="s">
         <v>443</v>
       </c>
-      <c r="E27" s="74" t="s">
+      <c r="E27" s="61" t="s">
         <v>465</v>
       </c>
-      <c r="F27" s="74" t="s">
+      <c r="F27" s="61" t="s">
         <v>265</v>
       </c>
       <c r="G27" s="3"/>
@@ -13966,22 +13971,22 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="73">
+      <c r="A28" s="60">
         <v>12</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="61" t="s">
         <v>730</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="E28" s="74" t="s">
+      <c r="E28" s="61" t="s">
         <v>468</v>
       </c>
-      <c r="F28" s="74" t="s">
+      <c r="F28" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="3"/>
@@ -13989,22 +13994,22 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="73">
+      <c r="A29" s="60">
         <v>13</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="61" t="s">
         <v>729</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="61" t="s">
         <v>469</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="61" t="s">
         <v>470</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="61" t="s">
         <v>471</v>
       </c>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="3"/>
@@ -14012,22 +14017,22 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="73">
+      <c r="A30" s="60">
         <v>14</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="61" t="s">
         <v>728</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="61" t="s">
         <v>472</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="F30" s="74" t="s">
+      <c r="F30" s="61" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="3"/>
@@ -14035,994 +14040,994 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66">
+      <c r="A31" s="56">
         <v>3</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="76" t="s">
         <v>475</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
     </row>
     <row r="32" spans="1:9" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="75">
+      <c r="A32" s="62">
         <v>1</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="62" t="s">
         <v>727</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="62" t="s">
         <v>476</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="62" t="s">
         <v>477</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="62" t="s">
         <v>478</v>
       </c>
-      <c r="F32" s="75" t="s">
+      <c r="F32" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="75">
+      <c r="A33" s="62">
         <v>2</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="62" t="s">
         <v>726</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="62" t="s">
         <v>479</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="62" t="s">
         <v>480</v>
       </c>
-      <c r="E33" s="75" t="s">
+      <c r="E33" s="62" t="s">
         <v>481</v>
       </c>
-      <c r="F33" s="75" t="s">
+      <c r="F33" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="75">
+      <c r="A34" s="62">
         <v>3</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="62" t="s">
         <v>725</v>
       </c>
-      <c r="C34" s="75" t="s">
+      <c r="C34" s="62" t="s">
         <v>482</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="62" t="s">
         <v>484</v>
       </c>
-      <c r="F34" s="75" t="s">
+      <c r="F34" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="75">
+      <c r="A35" s="62">
         <v>4</v>
       </c>
-      <c r="B35" s="75" t="s">
+      <c r="B35" s="62" t="s">
         <v>724</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="62" t="s">
         <v>485</v>
       </c>
-      <c r="D35" s="75" t="s">
+      <c r="D35" s="62" t="s">
         <v>486</v>
       </c>
-      <c r="E35" s="75" t="s">
+      <c r="E35" s="62" t="s">
         <v>487</v>
       </c>
-      <c r="F35" s="75" t="s">
+      <c r="F35" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="75">
+      <c r="A36" s="62">
         <v>5</v>
       </c>
-      <c r="B36" s="75" t="s">
+      <c r="B36" s="62" t="s">
         <v>723</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="62" t="s">
         <v>488</v>
       </c>
-      <c r="D36" s="75" t="s">
+      <c r="D36" s="62" t="s">
         <v>489</v>
       </c>
-      <c r="E36" s="75" t="s">
+      <c r="E36" s="62" t="s">
         <v>490</v>
       </c>
-      <c r="F36" s="75" t="s">
+      <c r="F36" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="75">
+      <c r="A37" s="62">
         <v>6</v>
       </c>
-      <c r="B37" s="75" t="s">
+      <c r="B37" s="62" t="s">
         <v>722</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="62" t="s">
         <v>491</v>
       </c>
-      <c r="D37" s="75" t="s">
+      <c r="D37" s="62" t="s">
         <v>492</v>
       </c>
-      <c r="E37" s="75" t="s">
+      <c r="E37" s="62" t="s">
         <v>493</v>
       </c>
-      <c r="F37" s="75" t="s">
+      <c r="F37" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="75">
+      <c r="A38" s="62">
         <v>7</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="62" t="s">
         <v>721</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="62" t="s">
         <v>494</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="62" t="s">
         <v>495</v>
       </c>
-      <c r="E38" s="75" t="s">
+      <c r="E38" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="F38" s="75" t="s">
+      <c r="F38" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="75">
+      <c r="A39" s="62">
         <v>8</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="62" t="s">
         <v>720</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="62" t="s">
         <v>497</v>
       </c>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="62" t="s">
         <v>498</v>
       </c>
-      <c r="E39" s="75" t="s">
+      <c r="E39" s="62" t="s">
         <v>499</v>
       </c>
-      <c r="F39" s="75" t="s">
+      <c r="F39" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75">
+      <c r="A40" s="62">
         <v>9</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="62" t="s">
         <v>674</v>
       </c>
-      <c r="C40" s="75" t="s">
+      <c r="C40" s="62" t="s">
         <v>500</v>
       </c>
-      <c r="D40" s="75" t="s">
+      <c r="D40" s="62" t="s">
         <v>501</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E40" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="F40" s="75" t="s">
+      <c r="F40" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="75">
+      <c r="A41" s="62">
         <v>10</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="62" t="s">
         <v>675</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="62" t="s">
         <v>503</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="62" t="s">
         <v>504</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="62" t="s">
         <v>505</v>
       </c>
-      <c r="F41" s="75" t="s">
+      <c r="F41" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="75">
+      <c r="A42" s="62">
         <v>11</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="62" t="s">
         <v>719</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="62" t="s">
         <v>506</v>
       </c>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="62" t="s">
         <v>507</v>
       </c>
-      <c r="E42" s="75" t="s">
+      <c r="E42" s="62" t="s">
         <v>508</v>
       </c>
-      <c r="F42" s="75" t="s">
+      <c r="F42" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75">
+      <c r="A43" s="62">
         <v>12</v>
       </c>
-      <c r="B43" s="75" t="s">
+      <c r="B43" s="62" t="s">
         <v>676</v>
       </c>
-      <c r="C43" s="75" t="s">
+      <c r="C43" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="62" t="s">
         <v>510</v>
       </c>
-      <c r="E43" s="75" t="s">
+      <c r="E43" s="62" t="s">
         <v>511</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="62" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="66">
+      <c r="A44" s="56">
         <v>4</v>
       </c>
-      <c r="B44" s="67" t="s">
+      <c r="B44" s="76" t="s">
         <v>512</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="78"/>
     </row>
     <row r="45" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="76">
+      <c r="A45" s="63">
         <v>1</v>
       </c>
-      <c r="B45" s="77" t="s">
+      <c r="B45" s="64" t="s">
         <v>718</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="D45" s="77" t="s">
+      <c r="D45" s="64" t="s">
         <v>514</v>
       </c>
-      <c r="E45" s="77" t="s">
+      <c r="E45" s="64" t="s">
         <v>515</v>
       </c>
-      <c r="F45" s="77" t="s">
+      <c r="F45" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="76">
+      <c r="A46" s="63">
         <v>2</v>
       </c>
-      <c r="B46" s="77" t="s">
+      <c r="B46" s="64" t="s">
         <v>717</v>
       </c>
-      <c r="C46" s="77" t="s">
+      <c r="C46" s="64" t="s">
         <v>516</v>
       </c>
-      <c r="D46" s="77" t="s">
+      <c r="D46" s="64" t="s">
         <v>517</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="64" t="s">
         <v>518</v>
       </c>
-      <c r="F46" s="77" t="s">
+      <c r="F46" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="76">
+      <c r="A47" s="63">
         <v>3</v>
       </c>
-      <c r="B47" s="77" t="s">
+      <c r="B47" s="64" t="s">
         <v>716</v>
       </c>
-      <c r="C47" s="77" t="s">
+      <c r="C47" s="64" t="s">
         <v>519</v>
       </c>
-      <c r="D47" s="77" t="s">
+      <c r="D47" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="E47" s="77" t="s">
+      <c r="E47" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F47" s="77" t="s">
+      <c r="F47" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="76">
+      <c r="A48" s="63">
         <v>4</v>
       </c>
-      <c r="B48" s="77" t="s">
+      <c r="B48" s="64" t="s">
         <v>715</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="64" t="s">
         <v>522</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="64" t="s">
         <v>523</v>
       </c>
-      <c r="E48" s="77" t="s">
+      <c r="E48" s="64" t="s">
         <v>524</v>
       </c>
-      <c r="F48" s="77" t="s">
+      <c r="F48" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="76">
+      <c r="A49" s="63">
         <v>5</v>
       </c>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="64" t="s">
         <v>714</v>
       </c>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="D49" s="77" t="s">
+      <c r="D49" s="64" t="s">
         <v>526</v>
       </c>
-      <c r="E49" s="77" t="s">
+      <c r="E49" s="64" t="s">
         <v>527</v>
       </c>
-      <c r="F49" s="77" t="s">
+      <c r="F49" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="76">
+      <c r="A50" s="63">
         <v>6</v>
       </c>
-      <c r="B50" s="77" t="s">
+      <c r="B50" s="64" t="s">
         <v>713</v>
       </c>
-      <c r="C50" s="77" t="s">
+      <c r="C50" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="D50" s="77" t="s">
+      <c r="D50" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="E50" s="77" t="s">
+      <c r="E50" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="F50" s="77" t="s">
+      <c r="F50" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="76">
+      <c r="A51" s="63">
         <v>7</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="64" t="s">
         <v>712</v>
       </c>
-      <c r="C51" s="77" t="s">
+      <c r="C51" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="D51" s="77" t="s">
+      <c r="D51" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="E51" s="77" t="s">
+      <c r="E51" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="F51" s="77" t="s">
+      <c r="F51" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="66">
+      <c r="A52" s="56">
         <v>5</v>
       </c>
-      <c r="B52" s="67" t="s">
+      <c r="B52" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="69"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
     </row>
     <row r="53" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="78">
+      <c r="A53" s="65">
         <v>1</v>
       </c>
-      <c r="B53" s="79" t="s">
+      <c r="B53" s="66" t="s">
         <v>700</v>
       </c>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="66" t="s">
         <v>535</v>
       </c>
-      <c r="D53" s="79" t="s">
+      <c r="D53" s="66" t="s">
         <v>536</v>
       </c>
-      <c r="E53" s="79" t="s">
+      <c r="E53" s="66" t="s">
         <v>537</v>
       </c>
-      <c r="F53" s="79" t="s">
+      <c r="F53" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="78">
+      <c r="A54" s="65">
         <v>2</v>
       </c>
-      <c r="B54" s="79" t="s">
+      <c r="B54" s="66" t="s">
         <v>699</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="66" t="s">
         <v>538</v>
       </c>
-      <c r="D54" s="79" t="s">
+      <c r="D54" s="66" t="s">
         <v>539</v>
       </c>
-      <c r="E54" s="79" t="s">
+      <c r="E54" s="66" t="s">
         <v>540</v>
       </c>
-      <c r="F54" s="79" t="s">
+      <c r="F54" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="78">
+      <c r="A55" s="65">
         <v>3</v>
       </c>
-      <c r="B55" s="79" t="s">
+      <c r="B55" s="66" t="s">
         <v>698</v>
       </c>
-      <c r="C55" s="79" t="s">
+      <c r="C55" s="66" t="s">
         <v>541</v>
       </c>
-      <c r="D55" s="79" t="s">
+      <c r="D55" s="66" t="s">
         <v>542</v>
       </c>
-      <c r="E55" s="79" t="s">
+      <c r="E55" s="66" t="s">
         <v>543</v>
       </c>
-      <c r="F55" s="79" t="s">
+      <c r="F55" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="78">
+      <c r="A56" s="65">
         <v>4</v>
       </c>
-      <c r="B56" s="79" t="s">
+      <c r="B56" s="66" t="s">
         <v>697</v>
       </c>
-      <c r="C56" s="79" t="s">
+      <c r="C56" s="66" t="s">
         <v>544</v>
       </c>
-      <c r="D56" s="79" t="s">
+      <c r="D56" s="66" t="s">
         <v>545</v>
       </c>
-      <c r="E56" s="79" t="s">
+      <c r="E56" s="66" t="s">
         <v>546</v>
       </c>
-      <c r="F56" s="79" t="s">
+      <c r="F56" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="78">
+      <c r="A57" s="65">
         <v>5</v>
       </c>
-      <c r="B57" s="79" t="s">
+      <c r="B57" s="66" t="s">
         <v>696</v>
       </c>
-      <c r="C57" s="79" t="s">
+      <c r="C57" s="66" t="s">
         <v>547</v>
       </c>
-      <c r="D57" s="79" t="s">
+      <c r="D57" s="66" t="s">
         <v>548</v>
       </c>
-      <c r="E57" s="79" t="s">
+      <c r="E57" s="66" t="s">
         <v>549</v>
       </c>
-      <c r="F57" s="79" t="s">
+      <c r="F57" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="78">
+      <c r="A58" s="65">
         <v>6</v>
       </c>
-      <c r="B58" s="79" t="s">
+      <c r="B58" s="66" t="s">
         <v>695</v>
       </c>
-      <c r="C58" s="79" t="s">
+      <c r="C58" s="66" t="s">
         <v>550</v>
       </c>
-      <c r="D58" s="79" t="s">
+      <c r="D58" s="66" t="s">
         <v>551</v>
       </c>
-      <c r="E58" s="79" t="s">
+      <c r="E58" s="66" t="s">
         <v>540</v>
       </c>
-      <c r="F58" s="79" t="s">
+      <c r="F58" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="78">
+      <c r="A59" s="65">
         <v>7</v>
       </c>
-      <c r="B59" s="79" t="s">
+      <c r="B59" s="66" t="s">
         <v>694</v>
       </c>
-      <c r="C59" s="79" t="s">
+      <c r="C59" s="66" t="s">
         <v>552</v>
       </c>
-      <c r="D59" s="79" t="s">
+      <c r="D59" s="66" t="s">
         <v>553</v>
       </c>
-      <c r="E59" s="79" t="s">
+      <c r="E59" s="66" t="s">
         <v>554</v>
       </c>
-      <c r="F59" s="79" t="s">
+      <c r="F59" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="78">
+      <c r="A60" s="65">
         <v>8</v>
       </c>
-      <c r="B60" s="79" t="s">
+      <c r="B60" s="66" t="s">
         <v>693</v>
       </c>
-      <c r="C60" s="79" t="s">
+      <c r="C60" s="66" t="s">
         <v>555</v>
       </c>
-      <c r="D60" s="79" t="s">
+      <c r="D60" s="66" t="s">
         <v>556</v>
       </c>
-      <c r="E60" s="79" t="s">
+      <c r="E60" s="66" t="s">
         <v>557</v>
       </c>
-      <c r="F60" s="79" t="s">
+      <c r="F60" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="78">
+      <c r="A61" s="65">
         <v>9</v>
       </c>
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="66" t="s">
         <v>692</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="66" t="s">
         <v>558</v>
       </c>
-      <c r="D61" s="79" t="s">
+      <c r="D61" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="E61" s="79" t="s">
+      <c r="E61" s="66" t="s">
         <v>560</v>
       </c>
-      <c r="F61" s="79" t="s">
+      <c r="F61" s="66" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="66">
+      <c r="A62" s="56">
         <v>6</v>
       </c>
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="76" t="s">
         <v>561</v>
       </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="69"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="78"/>
     </row>
     <row r="63" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="80">
+      <c r="A63" s="67">
         <v>1</v>
       </c>
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="68" t="s">
         <v>691</v>
       </c>
-      <c r="C63" s="81" t="s">
+      <c r="C63" s="68" t="s">
         <v>562</v>
       </c>
-      <c r="D63" s="81" t="s">
+      <c r="D63" s="68" t="s">
         <v>563</v>
       </c>
-      <c r="E63" s="81" t="s">
+      <c r="E63" s="68" t="s">
         <v>564</v>
       </c>
-      <c r="F63" s="81" t="s">
+      <c r="F63" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="80">
+      <c r="A64" s="67">
         <v>2</v>
       </c>
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="68" t="s">
         <v>565</v>
       </c>
-      <c r="C64" s="81" t="s">
+      <c r="C64" s="68" t="s">
         <v>566</v>
       </c>
-      <c r="D64" s="81" t="s">
+      <c r="D64" s="68" t="s">
         <v>567</v>
       </c>
-      <c r="E64" s="81" t="s">
+      <c r="E64" s="68" t="s">
         <v>568</v>
       </c>
-      <c r="F64" s="81" t="s">
+      <c r="F64" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="80">
+      <c r="A65" s="67">
         <v>3</v>
       </c>
-      <c r="B65" s="81" t="s">
+      <c r="B65" s="68" t="s">
         <v>690</v>
       </c>
-      <c r="C65" s="81" t="s">
+      <c r="C65" s="68" t="s">
         <v>569</v>
       </c>
-      <c r="D65" s="81" t="s">
+      <c r="D65" s="68" t="s">
         <v>570</v>
       </c>
-      <c r="E65" s="81" t="s">
+      <c r="E65" s="68" t="s">
         <v>564</v>
       </c>
-      <c r="F65" s="81" t="s">
+      <c r="F65" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="80">
+      <c r="A66" s="67">
         <v>4</v>
       </c>
-      <c r="B66" s="81" t="s">
+      <c r="B66" s="68" t="s">
         <v>689</v>
       </c>
-      <c r="C66" s="81" t="s">
+      <c r="C66" s="68" t="s">
         <v>571</v>
       </c>
-      <c r="D66" s="81" t="s">
+      <c r="D66" s="68" t="s">
         <v>572</v>
       </c>
-      <c r="E66" s="81" t="s">
+      <c r="E66" s="68" t="s">
         <v>573</v>
       </c>
-      <c r="F66" s="81" t="s">
+      <c r="F66" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="80">
+      <c r="A67" s="67">
         <v>5</v>
       </c>
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="68" t="s">
         <v>688</v>
       </c>
-      <c r="C67" s="81" t="s">
+      <c r="C67" s="68" t="s">
         <v>574</v>
       </c>
-      <c r="D67" s="81" t="s">
+      <c r="D67" s="68" t="s">
         <v>575</v>
       </c>
-      <c r="E67" s="81" t="s">
+      <c r="E67" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="F67" s="81" t="s">
+      <c r="F67" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="80">
+      <c r="A68" s="67">
         <v>6</v>
       </c>
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="68" t="s">
         <v>687</v>
       </c>
-      <c r="C68" s="81" t="s">
+      <c r="C68" s="68" t="s">
         <v>577</v>
       </c>
-      <c r="D68" s="81" t="s">
+      <c r="D68" s="68" t="s">
         <v>578</v>
       </c>
-      <c r="E68" s="81" t="s">
+      <c r="E68" s="68" t="s">
         <v>579</v>
       </c>
-      <c r="F68" s="81" t="s">
+      <c r="F68" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="80">
+      <c r="A69" s="67">
         <v>7</v>
       </c>
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="68" t="s">
         <v>686</v>
       </c>
-      <c r="C69" s="81" t="s">
+      <c r="C69" s="68" t="s">
         <v>580</v>
       </c>
-      <c r="D69" s="81" t="s">
+      <c r="D69" s="68" t="s">
         <v>581</v>
       </c>
-      <c r="E69" s="81" t="s">
+      <c r="E69" s="68" t="s">
         <v>582</v>
       </c>
-      <c r="F69" s="81" t="s">
+      <c r="F69" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="80">
+      <c r="A70" s="67">
         <v>8</v>
       </c>
-      <c r="B70" s="81" t="s">
+      <c r="B70" s="68" t="s">
         <v>684</v>
       </c>
-      <c r="C70" s="81" t="s">
+      <c r="C70" s="68" t="s">
         <v>583</v>
       </c>
-      <c r="D70" s="81" t="s">
+      <c r="D70" s="68" t="s">
         <v>584</v>
       </c>
-      <c r="E70" s="81" t="s">
+      <c r="E70" s="68" t="s">
         <v>585</v>
       </c>
-      <c r="F70" s="81" t="s">
+      <c r="F70" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="66">
+      <c r="A71" s="56">
         <v>7</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="76" t="s">
         <v>586</v>
       </c>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="69"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="78"/>
     </row>
     <row r="72" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="82">
+      <c r="A72" s="69">
         <v>1</v>
       </c>
-      <c r="B72" s="83" t="s">
+      <c r="B72" s="70" t="s">
         <v>685</v>
       </c>
-      <c r="C72" s="83" t="s">
+      <c r="C72" s="70" t="s">
         <v>587</v>
       </c>
-      <c r="D72" s="83" t="s">
+      <c r="D72" s="70" t="s">
         <v>588</v>
       </c>
-      <c r="E72" s="83" t="s">
+      <c r="E72" s="70" t="s">
         <v>589</v>
       </c>
-      <c r="F72" s="83" t="s">
+      <c r="F72" s="70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="126" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="82">
+      <c r="A73" s="69">
         <v>2</v>
       </c>
-      <c r="B73" s="83" t="s">
+      <c r="B73" s="70" t="s">
         <v>683</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="70" t="s">
         <v>590</v>
       </c>
-      <c r="D73" s="83" t="s">
+      <c r="D73" s="70" t="s">
         <v>591</v>
       </c>
-      <c r="E73" s="83" t="s">
+      <c r="E73" s="70" t="s">
         <v>592</v>
       </c>
-      <c r="F73" s="83" t="s">
+      <c r="F73" s="70" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="82">
+      <c r="A74" s="69">
         <v>3</v>
       </c>
-      <c r="B74" s="83" t="s">
+      <c r="B74" s="70" t="s">
         <v>682</v>
       </c>
-      <c r="C74" s="83" t="s">
+      <c r="C74" s="70" t="s">
         <v>593</v>
       </c>
-      <c r="D74" s="83" t="s">
+      <c r="D74" s="70" t="s">
         <v>594</v>
       </c>
-      <c r="E74" s="83" t="s">
+      <c r="E74" s="70" t="s">
         <v>595</v>
       </c>
-      <c r="F74" s="83" t="s">
+      <c r="F74" s="70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="82">
+      <c r="A75" s="69">
         <v>4</v>
       </c>
-      <c r="B75" s="83" t="s">
+      <c r="B75" s="70" t="s">
         <v>681</v>
       </c>
-      <c r="C75" s="83" t="s">
+      <c r="C75" s="70" t="s">
         <v>596</v>
       </c>
-      <c r="D75" s="83" t="s">
+      <c r="D75" s="70" t="s">
         <v>597</v>
       </c>
-      <c r="E75" s="83" t="s">
+      <c r="E75" s="70" t="s">
         <v>598</v>
       </c>
-      <c r="F75" s="83" t="s">
+      <c r="F75" s="70" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="66">
+      <c r="A76" s="56">
         <v>8</v>
       </c>
-      <c r="B76" s="67" t="s">
+      <c r="B76" s="76" t="s">
         <v>599</v>
       </c>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="69"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="78"/>
     </row>
     <row r="77" spans="1:6" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="84">
+      <c r="A77" s="71">
         <v>1</v>
       </c>
-      <c r="B77" s="85" t="s">
+      <c r="B77" s="72" t="s">
         <v>680</v>
       </c>
-      <c r="C77" s="85" t="s">
+      <c r="C77" s="72" t="s">
         <v>600</v>
       </c>
-      <c r="D77" s="85" t="s">
+      <c r="D77" s="72" t="s">
         <v>601</v>
       </c>
-      <c r="E77" s="85" t="s">
+      <c r="E77" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="F77" s="85" t="s">
+      <c r="F77" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="84">
+      <c r="A78" s="71">
         <v>2</v>
       </c>
-      <c r="B78" s="85" t="s">
+      <c r="B78" s="72" t="s">
         <v>603</v>
       </c>
-      <c r="C78" s="85" t="s">
+      <c r="C78" s="72" t="s">
         <v>604</v>
       </c>
-      <c r="D78" s="85" t="s">
+      <c r="D78" s="72" t="s">
         <v>605</v>
       </c>
-      <c r="E78" s="85" t="s">
+      <c r="E78" s="72" t="s">
         <v>606</v>
       </c>
-      <c r="F78" s="85" t="s">
+      <c r="F78" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="84">
+      <c r="A79" s="71">
         <v>3</v>
       </c>
-      <c r="B79" s="85" t="s">
+      <c r="B79" s="72" t="s">
         <v>711</v>
       </c>
-      <c r="C79" s="85" t="s">
+      <c r="C79" s="72" t="s">
         <v>607</v>
       </c>
-      <c r="D79" s="85" t="s">
+      <c r="D79" s="72" t="s">
         <v>608</v>
       </c>
-      <c r="E79" s="85" t="s">
+      <c r="E79" s="72" t="s">
         <v>609</v>
       </c>
-      <c r="F79" s="85" t="s">
+      <c r="F79" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="84">
+      <c r="A80" s="71">
         <v>4</v>
       </c>
-      <c r="B80" s="85" t="s">
+      <c r="B80" s="72" t="s">
         <v>679</v>
       </c>
-      <c r="C80" s="85" t="s">
+      <c r="C80" s="72" t="s">
         <v>610</v>
       </c>
-      <c r="D80" s="85" t="s">
+      <c r="D80" s="72" t="s">
         <v>611</v>
       </c>
-      <c r="E80" s="85" t="s">
+      <c r="E80" s="72" t="s">
         <v>612</v>
       </c>
-      <c r="F80" s="85" t="s">
+      <c r="F80" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="84">
+      <c r="A81" s="71">
         <v>5</v>
       </c>
-      <c r="B81" s="85" t="s">
+      <c r="B81" s="72" t="s">
         <v>678</v>
       </c>
-      <c r="C81" s="85" t="s">
+      <c r="C81" s="72" t="s">
         <v>613</v>
       </c>
-      <c r="D81" s="85" t="s">
+      <c r="D81" s="72" t="s">
         <v>614</v>
       </c>
-      <c r="E81" s="85" t="s">
+      <c r="E81" s="72" t="s">
         <v>615</v>
       </c>
-      <c r="F81" s="85" t="s">
+      <c r="F81" s="72" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="84">
+      <c r="A82" s="71">
         <v>6</v>
       </c>
-      <c r="B82" s="85" t="s">
+      <c r="B82" s="72" t="s">
         <v>677</v>
       </c>
-      <c r="C82" s="85" t="s">
+      <c r="C82" s="72" t="s">
         <v>616</v>
       </c>
-      <c r="D82" s="85" t="s">
+      <c r="D82" s="72" t="s">
         <v>617</v>
       </c>
-      <c r="E82" s="85" t="s">
+      <c r="E82" s="72" t="s">
         <v>618</v>
       </c>
-      <c r="F82" s="85" t="s">
+      <c r="F82" s="72" t="s">
         <v>26</v>
       </c>
     </row>

--- a/NanaFood - Test.xlsx
+++ b/NanaFood - Test.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN\NanaWebFood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C334878A-F962-4007-A838-F04F53B5E9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CDC2B1-CC57-42FF-9781-6A81F66FE474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Case" sheetId="1" r:id="rId1"/>
-    <sheet name="Unit Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Unit Test API" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Case'!$A$9:$K$74</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="792">
   <si>
     <t>Project Name:</t>
   </si>
@@ -2612,6 +2612,205 @@
   <si>
     <t>ChangePass ReturnsOk WhenChangePasswordIsSuccessful</t>
   </si>
+  <si>
+    <t>TC_RV_01</t>
+  </si>
+  <si>
+    <t>Khách mua hàng bình luận và đánh giá món ăn</t>
+  </si>
+  <si>
+    <t>Thêm bình luận và đánh giá</t>
+  </si>
+  <si>
+    <t>Người dùng đã đăng nhập và mua hàng</t>
+  </si>
+  <si>
+    <t>1. Mở trang chi tiết món ăn
+2. Nhập nội dung bình luận và chọn số sao
+3. Nhấn nút "Gửi"</t>
+  </si>
+  <si>
+    <t>Nội dung: "Ngon, dịch vụ tốt"
+Sao: 5</t>
+  </si>
+  <si>
+    <t>Bình luận và đánh giá hiển thị trên hệ thống</t>
+  </si>
+  <si>
+    <t>Bình luận hiển thị với trạng thái "Chờ duyệt"</t>
+  </si>
+  <si>
+    <t>Bình luận và đánh giá thành công</t>
+  </si>
+  <si>
+    <t>TC_RV_02</t>
+  </si>
+  <si>
+    <t>Người không mua hàng cố gắng đánh giá</t>
+  </si>
+  <si>
+    <t>Đánh giá thất bại</t>
+  </si>
+  <si>
+    <t>Người dùng chưa có đơn hàng nào</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập
+2. Mở trang món ăn
+3. Nhập bình luận và chọn sao
+4. Nhấn nút "Gửi"</t>
+  </si>
+  <si>
+    <t>Nội dung: "Tệ"
+Sao: 1</t>
+  </si>
+  <si>
+    <t>Bình luận và đánh giá thất bại</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Chỉ khách mua hàng mới được đánh giá"</t>
+  </si>
+  <si>
+    <t>Không thêm bình luận trên hệ thống</t>
+  </si>
+  <si>
+    <t>TC_QR_01</t>
+  </si>
+  <si>
+    <t>TC_QR_02</t>
+  </si>
+  <si>
+    <t>Đăng nhập bằng mã QR</t>
+  </si>
+  <si>
+    <t>Người dùng quét mã QR để đăng nhập</t>
+  </si>
+  <si>
+    <t>Mã QR đã được tạo và hiển thị</t>
+  </si>
+  <si>
+    <t>1. Mở ứng dụng quét mã QR
+2. Quét mã QR hiển thị trên trang
+3. Hệ thống xác thực và đăng nhập</t>
+  </si>
+  <si>
+    <t>Mã QR hợp lệ</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công và chuyển tới trang chính</t>
+  </si>
+  <si>
+    <t>Phiên đăng nhập được ghi nhận</t>
+  </si>
+  <si>
+    <t>Mã QR không hợp lệ</t>
+  </si>
+  <si>
+    <t>Người dùng quét mã QR hết hạn</t>
+  </si>
+  <si>
+    <t>Mã QR hết hạn</t>
+  </si>
+  <si>
+    <t>1. Thực hiện các bước quét mã QR
+2. Nhấn nút "Đăng nhập"</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo lỗi: "Mã QR đã hết hạn"</t>
+  </si>
+  <si>
+    <t>Đăng nhập không  thành công</t>
+  </si>
+  <si>
+    <t>TC_AR_01</t>
+  </si>
+  <si>
+    <t>TC_AR_02</t>
+  </si>
+  <si>
+    <t>Admin duyệt một đánh giá</t>
+  </si>
+  <si>
+    <t>Đánh giá đang ở trạng thái "Chờ duyệt"</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản admin
+2. Vào trang quản lý đánh giá
+3. Chọn đánh giá
+4. Nhấn "Duyệt"</t>
+  </si>
+  <si>
+    <t>Đánh giá ID: 12345</t>
+  </si>
+  <si>
+    <t>Đánh giá ID: 12346</t>
+  </si>
+  <si>
+    <t>Đánh giá hiển thị công khai trên hệ thống</t>
+  </si>
+  <si>
+    <t>Duyệt đánh giá</t>
+  </si>
+  <si>
+    <t>Trạng thái đánh giá đổi thành "Đã duyệt"</t>
+  </si>
+  <si>
+    <t>Duyệt đánh giá thành công</t>
+  </si>
+  <si>
+    <t>Admin xóa một đánh giá vi phạm</t>
+  </si>
+  <si>
+    <t>Đánh giá có nội dung không phù hợp</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập tài khoản admin
+2. Vào trang quản lý đánh giá
+3. Chọn đánh giá
+4. Nhấn "Xóa"</t>
+  </si>
+  <si>
+    <t>Đánh giá bị xóa khỏi hệ thống</t>
+  </si>
+  <si>
+    <t>Xóa đánh giá không hợp lệ</t>
+  </si>
+  <si>
+    <t>Không còn hiển thị đánh giá</t>
+  </si>
+  <si>
+    <t>Xoá đánh giá thành công</t>
+  </si>
+  <si>
+    <t>TC_FL_01</t>
+  </si>
+  <si>
+    <t>Admin khóa tài khoản vi phạm</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập admin
+2. Truy cập danh sách tài khoản
+3. Lọc tài khoản vi phạm
+4. Nhấn nút "Khóa tài khoản"</t>
+  </si>
+  <si>
+    <t>Tài khoản: user123</t>
+  </si>
+  <si>
+    <t>Tài khoản bị khóa và thông báo qua email</t>
+  </si>
+  <si>
+    <t>Tài khoản không thể đăng nhập</t>
+  </si>
+  <si>
+    <t>Khoá tài khoản thành công</t>
+  </si>
+  <si>
+    <t>Khóa tài khoản đặt hàng không nhận hàng hoặc huỷ nhiều lần</t>
+  </si>
+  <si>
+    <t>Người dùng đã không nhận hàng, hủy đơn nhiều lần</t>
+  </si>
 </sst>
 </file>
 
@@ -2620,7 +2819,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2707,6 +2906,11 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -3206,11 +3410,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -3235,6 +3434,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3455,8 +3659,8 @@
   </sheetPr>
   <dimension ref="A1:K1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3592,7 +3796,7 @@
       <c r="H9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="76" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="14" t="s">
@@ -3625,11 +3829,11 @@
       <c r="H10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="80"/>
+      <c r="I10" s="77"/>
       <c r="J10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3656,11 +3860,11 @@
       <c r="H11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="81"/>
+      <c r="I11" s="78"/>
       <c r="J11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3687,11 +3891,11 @@
       <c r="H12" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="81"/>
+      <c r="I12" s="78"/>
       <c r="J12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3724,7 +3928,7 @@
       <c r="J13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="83" t="s">
+      <c r="K13" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3753,11 +3957,11 @@
       <c r="H14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="80"/>
+      <c r="I14" s="77"/>
       <c r="J14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="K14" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3790,7 +3994,7 @@
       <c r="J15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="83" t="s">
+      <c r="K15" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3823,7 +4027,7 @@
       <c r="J16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K16" s="83" t="s">
+      <c r="K16" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3856,7 +4060,7 @@
       <c r="J17" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="K17" s="83" t="s">
+      <c r="K17" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3889,7 +4093,7 @@
       <c r="J18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="83" t="s">
+      <c r="K18" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3916,11 +4120,11 @@
       <c r="H19" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="81"/>
+      <c r="I19" s="78"/>
       <c r="J19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3945,11 +4149,11 @@
       <c r="H20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="81"/>
+      <c r="I20" s="78"/>
       <c r="J20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="K20" s="83" t="s">
+      <c r="K20" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3974,9 +4178,9 @@
       <c r="H21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="81"/>
+      <c r="I21" s="78"/>
       <c r="J21" s="21"/>
-      <c r="K21" s="84" t="s">
+      <c r="K21" s="81" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4003,11 +4207,11 @@
       <c r="H22" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="82"/>
+      <c r="I22" s="79"/>
       <c r="J22" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="K22" s="85" t="s">
+      <c r="K22" s="82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4040,7 +4244,7 @@
       <c r="J23" s="37" t="s">
         <v>642</v>
       </c>
-      <c r="K23" s="85" t="s">
+      <c r="K23" s="82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4073,7 +4277,7 @@
       <c r="J24" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="K24" s="85" t="s">
+      <c r="K24" s="82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4106,7 +4310,7 @@
       <c r="J25" s="48" t="s">
         <v>643</v>
       </c>
-      <c r="K25" s="85" t="s">
+      <c r="K25" s="82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4139,7 +4343,7 @@
       <c r="J26" s="52" t="s">
         <v>643</v>
       </c>
-      <c r="K26" s="86" t="s">
+      <c r="K26" s="83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4174,7 +4378,7 @@
       <c r="J27" s="42" t="s">
         <v>672</v>
       </c>
-      <c r="K27" s="86" t="s">
+      <c r="K27" s="83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4207,7 +4411,7 @@
       <c r="J28" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="K28" s="86" t="s">
+      <c r="K28" s="83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4240,7 +4444,7 @@
       <c r="J29" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="K29" s="86" t="s">
+      <c r="K29" s="83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4273,7 +4477,7 @@
       <c r="J30" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="K30" s="86" t="s">
+      <c r="K30" s="83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4306,7 +4510,7 @@
       <c r="J31" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="K31" s="85" t="s">
+      <c r="K31" s="82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4335,11 +4539,11 @@
       <c r="H32" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="81"/>
+      <c r="I32" s="78"/>
       <c r="J32" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="K32" s="85" t="s">
+      <c r="K32" s="82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4368,11 +4572,11 @@
       <c r="H33" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="I33" s="81"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="K33" s="85" t="s">
+      <c r="K33" s="82" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4401,11 +4605,11 @@
       <c r="H34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="I34" s="81"/>
+      <c r="I34" s="78"/>
       <c r="J34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K34" s="83" t="s">
+      <c r="K34" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4434,11 +4638,11 @@
       <c r="H35" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I35" s="81"/>
+      <c r="I35" s="78"/>
       <c r="J35" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K35" s="83" t="s">
+      <c r="K35" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4467,11 +4671,11 @@
       <c r="H36" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I36" s="81"/>
+      <c r="I36" s="78"/>
       <c r="J36" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K36" s="83" t="s">
+      <c r="K36" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4500,11 +4704,11 @@
       <c r="H37" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="I37" s="81"/>
+      <c r="I37" s="78"/>
       <c r="J37" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K37" s="83" t="s">
+      <c r="K37" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4533,11 +4737,11 @@
       <c r="H38" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="I38" s="81"/>
+      <c r="I38" s="78"/>
       <c r="J38" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K38" s="83" t="s">
+      <c r="K38" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4566,11 +4770,11 @@
       <c r="H39" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="I39" s="81"/>
+      <c r="I39" s="78"/>
       <c r="J39" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="K39" s="83" t="s">
+      <c r="K39" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4599,11 +4803,11 @@
       <c r="H40" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="I40" s="81"/>
+      <c r="I40" s="78"/>
       <c r="J40" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K40" s="83" t="s">
+      <c r="K40" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4632,11 +4836,11 @@
       <c r="H41" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="I41" s="81"/>
+      <c r="I41" s="78"/>
       <c r="J41" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K41" s="83" t="s">
+      <c r="K41" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4665,11 +4869,11 @@
       <c r="H42" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="I42" s="81"/>
+      <c r="I42" s="78"/>
       <c r="J42" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="K42" s="83" t="s">
+      <c r="K42" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4698,11 +4902,11 @@
       <c r="H43" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I43" s="81"/>
+      <c r="I43" s="78"/>
       <c r="J43" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K43" s="83" t="s">
+      <c r="K43" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4731,11 +4935,11 @@
       <c r="H44" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="81"/>
+      <c r="I44" s="78"/>
       <c r="J44" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K44" s="83" t="s">
+      <c r="K44" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4764,11 +4968,11 @@
       <c r="H45" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I45" s="81"/>
+      <c r="I45" s="78"/>
       <c r="J45" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K45" s="83" t="s">
+      <c r="K45" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4797,11 +5001,11 @@
       <c r="H46" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="I46" s="81"/>
+      <c r="I46" s="78"/>
       <c r="J46" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K46" s="83" t="s">
+      <c r="K46" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4830,11 +5034,11 @@
       <c r="H47" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="I47" s="81"/>
+      <c r="I47" s="78"/>
       <c r="J47" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K47" s="83" t="s">
+      <c r="K47" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4863,11 +5067,11 @@
       <c r="H48" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="I48" s="81"/>
+      <c r="I48" s="78"/>
       <c r="J48" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="K48" s="83" t="s">
+      <c r="K48" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4896,11 +5100,11 @@
       <c r="H49" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="I49" s="81"/>
+      <c r="I49" s="78"/>
       <c r="J49" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="K49" s="83" t="s">
+      <c r="K49" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4929,11 +5133,11 @@
       <c r="H50" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="I50" s="81"/>
+      <c r="I50" s="78"/>
       <c r="J50" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="K50" s="83" t="s">
+      <c r="K50" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4962,11 +5166,11 @@
       <c r="H51" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I51" s="81"/>
+      <c r="I51" s="78"/>
       <c r="J51" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K51" s="83" t="s">
+      <c r="K51" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4995,11 +5199,11 @@
       <c r="H52" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="I52" s="81"/>
+      <c r="I52" s="78"/>
       <c r="J52" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K52" s="83" t="s">
+      <c r="K52" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5028,11 +5232,11 @@
       <c r="H53" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="I53" s="81"/>
+      <c r="I53" s="78"/>
       <c r="J53" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K53" s="83" t="s">
+      <c r="K53" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5061,11 +5265,13 @@
       <c r="H54" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I54" s="81"/>
+      <c r="I54" s="78"/>
       <c r="J54" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K54" s="83"/>
+      <c r="K54" s="80" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="55" spans="1:11" ht="144" x14ac:dyDescent="0.35">
       <c r="A55" s="47">
@@ -5092,11 +5298,13 @@
       <c r="H55" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="I55" s="81"/>
+      <c r="I55" s="78"/>
       <c r="J55" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K55" s="83"/>
+      <c r="K55" s="80" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="56" spans="1:11" ht="126" x14ac:dyDescent="0.35">
       <c r="A56" s="47">
@@ -5123,11 +5331,13 @@
       <c r="H56" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I56" s="81"/>
+      <c r="I56" s="78"/>
       <c r="J56" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K56" s="83"/>
+      <c r="K56" s="80" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="57" spans="1:11" ht="162" x14ac:dyDescent="0.35">
       <c r="A57" s="47">
@@ -5154,11 +5364,13 @@
       <c r="H57" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="I57" s="81"/>
+      <c r="I57" s="78"/>
       <c r="J57" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="K57" s="83"/>
+      <c r="K57" s="80" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="58" spans="1:11" ht="180" x14ac:dyDescent="0.35">
       <c r="A58" s="47">
@@ -5185,11 +5397,11 @@
       <c r="H58" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="I58" s="81"/>
+      <c r="I58" s="78"/>
       <c r="J58" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K58" s="83" t="s">
+      <c r="K58" s="80" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5218,11 +5430,11 @@
       <c r="H59" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="I59" s="81"/>
+      <c r="I59" s="78"/>
       <c r="J59" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="K59" s="83" t="s">
+      <c r="K59" s="80" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5251,11 +5463,11 @@
       <c r="H60" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="I60" s="81"/>
+      <c r="I60" s="78"/>
       <c r="J60" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="K60" s="83" t="s">
+      <c r="K60" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5284,11 +5496,11 @@
       <c r="H61" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="I61" s="81"/>
+      <c r="I61" s="78"/>
       <c r="J61" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="K61" s="83" t="s">
+      <c r="K61" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5315,11 +5527,11 @@
       <c r="H62" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="I62" s="81"/>
+      <c r="I62" s="78"/>
       <c r="J62" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="K62" s="83" t="s">
+      <c r="K62" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5346,11 +5558,11 @@
       <c r="H63" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="I63" s="81"/>
+      <c r="I63" s="78"/>
       <c r="J63" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="K63" s="83" t="s">
+      <c r="K63" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5377,11 +5589,11 @@
       <c r="H64" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="I64" s="81"/>
+      <c r="I64" s="78"/>
       <c r="J64" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="K64" s="83" t="s">
+      <c r="K64" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5408,11 +5620,11 @@
       <c r="H65" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="I65" s="81"/>
+      <c r="I65" s="78"/>
       <c r="J65" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K65" s="83" t="s">
+      <c r="K65" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5441,11 +5653,11 @@
       <c r="H66" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="I66" s="81"/>
+      <c r="I66" s="78"/>
       <c r="J66" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K66" s="83" t="s">
+      <c r="K66" s="80" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5474,11 +5686,11 @@
       <c r="H67" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="I67" s="81"/>
+      <c r="I67" s="78"/>
       <c r="J67" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K67" s="83" t="s">
+      <c r="K67" s="80" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5505,11 +5717,11 @@
       <c r="H68" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="I68" s="81"/>
+      <c r="I68" s="78"/>
       <c r="J68" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="K68" s="83" t="s">
+      <c r="K68" s="80" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5536,15 +5748,15 @@
       <c r="H69" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="I69" s="81"/>
+      <c r="I69" s="78"/>
       <c r="J69" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="K69" s="83" t="s">
+      <c r="K69" s="80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="126" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="108" x14ac:dyDescent="0.35">
       <c r="A70" s="47">
         <v>61</v>
       </c>
@@ -5569,15 +5781,15 @@
       <c r="H70" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="I70" s="81"/>
+      <c r="I70" s="78"/>
       <c r="J70" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="K70" s="83" t="s">
+      <c r="K70" s="80" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="162" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="144" x14ac:dyDescent="0.35">
       <c r="A71" s="47">
         <v>62</v>
       </c>
@@ -5602,15 +5814,15 @@
       <c r="H71" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="I71" s="81"/>
+      <c r="I71" s="78"/>
       <c r="J71" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="K71" s="83" t="s">
+      <c r="K71" s="80" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="180" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="144" x14ac:dyDescent="0.35">
       <c r="A72" s="47">
         <v>63</v>
       </c>
@@ -5639,7 +5851,7 @@
       <c r="J72" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="K72" s="83" t="s">
+      <c r="K72" s="80" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5672,7 +5884,7 @@
       <c r="J73" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="K73" s="83" t="s">
+      <c r="K73" s="80" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5705,7 +5917,7 @@
       <c r="J74" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K74" s="83" t="s">
+      <c r="K74" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5738,7 +5950,7 @@
       <c r="J75" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K75" s="83" t="s">
+      <c r="K75" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5771,7 +5983,7 @@
       <c r="J76" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K76" s="83" t="s">
+      <c r="K76" s="80" t="s">
         <v>26</v>
       </c>
     </row>
@@ -5804,75 +6016,259 @@
       <c r="J77" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K77" s="83" t="s">
+      <c r="K77" s="80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="J84" s="5"/>
-    </row>
-    <row r="85" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="J85" s="5"/>
-    </row>
-    <row r="86" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="72" x14ac:dyDescent="0.35">
+      <c r="A78" s="47">
+        <v>69</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="E78" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="K78" s="80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="72" x14ac:dyDescent="0.35">
+      <c r="A79" s="47">
+        <v>70</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="K79" s="80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="54" x14ac:dyDescent="0.35">
+      <c r="A80" s="47">
+        <v>71</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>753</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K80" s="80"/>
+    </row>
+    <row r="81" spans="1:11" ht="54" x14ac:dyDescent="0.35">
+      <c r="A81" s="47">
+        <v>72</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="K81" s="80"/>
+    </row>
+    <row r="82" spans="1:11" ht="72" x14ac:dyDescent="0.35">
+      <c r="A82" s="47">
+        <v>73</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="K82" s="80"/>
+    </row>
+    <row r="83" spans="1:11" ht="72" x14ac:dyDescent="0.35">
+      <c r="A83" s="47">
+        <v>74</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="K83" s="80"/>
+    </row>
+    <row r="84" spans="1:11" ht="72" x14ac:dyDescent="0.35">
+      <c r="A84" s="47">
+        <v>75</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="K84" s="80"/>
+    </row>
+    <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47"/>
+      <c r="F85" s="47"/>
+      <c r="G85" s="47"/>
+      <c r="H85" s="47"/>
+      <c r="I85" s="47"/>
+      <c r="J85" s="47"/>
+      <c r="K85" s="47"/>
+    </row>
+    <row r="86" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -5880,7 +6276,7 @@
       <c r="H86" s="5"/>
       <c r="J86" s="5"/>
     </row>
-    <row r="87" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -5888,7 +6284,7 @@
       <c r="H87" s="5"/>
       <c r="J87" s="5"/>
     </row>
-    <row r="88" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -5896,7 +6292,7 @@
       <c r="H88" s="5"/>
       <c r="J88" s="5"/>
     </row>
-    <row r="89" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -5904,7 +6300,7 @@
       <c r="H89" s="5"/>
       <c r="J89" s="5"/>
     </row>
-    <row r="90" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -5912,7 +6308,7 @@
       <c r="H90" s="5"/>
       <c r="J90" s="5"/>
     </row>
-    <row r="91" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -5920,7 +6316,7 @@
       <c r="H91" s="5"/>
       <c r="J91" s="5"/>
     </row>
-    <row r="92" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -5928,7 +6324,7 @@
       <c r="H92" s="5"/>
       <c r="J92" s="5"/>
     </row>
-    <row r="93" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -5936,7 +6332,7 @@
       <c r="H93" s="5"/>
       <c r="J93" s="5"/>
     </row>
-    <row r="94" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5944,7 +6340,7 @@
       <c r="H94" s="5"/>
       <c r="J94" s="5"/>
     </row>
-    <row r="95" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -5952,7 +6348,7 @@
       <c r="H95" s="5"/>
       <c r="J95" s="5"/>
     </row>
-    <row r="96" spans="3:10" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -13402,10 +13798,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A9:K74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F66" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13416,7 +13814,7 @@
   </sheetPr>
   <dimension ref="A1:I1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -13457,13 +13855,13 @@
       <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="84" t="s">
         <v>392</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="57">
@@ -13709,13 +14107,13 @@
       <c r="A16" s="56">
         <v>2</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="84" t="s">
         <v>435</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
     </row>
     <row r="17" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="60">
@@ -14043,13 +14441,13 @@
       <c r="A31" s="56">
         <v>3</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="84" t="s">
         <v>475</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
     </row>
     <row r="32" spans="1:9" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62">
@@ -14295,13 +14693,13 @@
       <c r="A44" s="56">
         <v>4</v>
       </c>
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="84" t="s">
         <v>512</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="86"/>
     </row>
     <row r="45" spans="1:6" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="63">
@@ -14447,13 +14845,13 @@
       <c r="A52" s="56">
         <v>5</v>
       </c>
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="84" t="s">
         <v>534</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="78"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="86"/>
     </row>
     <row r="53" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="65">
@@ -14639,13 +15037,13 @@
       <c r="A62" s="56">
         <v>6</v>
       </c>
-      <c r="B62" s="76" t="s">
+      <c r="B62" s="84" t="s">
         <v>561</v>
       </c>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="78"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="86"/>
     </row>
     <row r="63" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="67">
@@ -14811,13 +15209,13 @@
       <c r="A71" s="56">
         <v>7</v>
       </c>
-      <c r="B71" s="76" t="s">
+      <c r="B71" s="84" t="s">
         <v>586</v>
       </c>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="78"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="86"/>
     </row>
     <row r="72" spans="1:6" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="69">
@@ -14903,13 +15301,13 @@
       <c r="A76" s="56">
         <v>8</v>
       </c>
-      <c r="B76" s="76" t="s">
+      <c r="B76" s="84" t="s">
         <v>599</v>
       </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="78"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="86"/>
     </row>
     <row r="77" spans="1:6" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="71">
